--- a/Webシステム仕様書/CheckSheet_給水栓（洗面用・電気式）.xlsx
+++ b/Webシステム仕様書/CheckSheet_給水栓（洗面用・電気式）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15075" windowHeight="10755"/>
+    <workbookView xWindow="120" yWindow="40" windowWidth="21240" windowHeight="13600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="単位list" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">項目list!$I$5:$K$5</definedName>
@@ -39,29 +38,29 @@
     <definedName name="しくみパターン">配点区分!$B$14:$B$19</definedName>
     <definedName name="しくみ配点区分">配点区分!$B$10:$B$14</definedName>
     <definedName name="しくみ評価">配点区分!$F$12:$J$12</definedName>
-    <definedName name="パターン" localSheetId="2">[2]配点区分!$B$6:$B$19</definedName>
+    <definedName name="パターン" localSheetId="2">[1]配点区分!$B$6:$B$19</definedName>
     <definedName name="リサイクルの管理レベル">配点区分!$F$10:$J$10</definedName>
     <definedName name="圧力">単位list!$D$66:$D$73</definedName>
     <definedName name="割合">単位list!$D$58</definedName>
     <definedName name="管理レベル">配点区分!$F$11:$J$11</definedName>
-    <definedName name="管理レベルの評価">[3]配点区分!$F$10:$H$10</definedName>
+    <definedName name="管理レベルの評価">[2]配点区分!$F$10:$H$10</definedName>
     <definedName name="管理レベル評価">配点区分!$F$16:$J$16</definedName>
     <definedName name="空気消費量">単位list!$D$37</definedName>
-    <definedName name="向上率_5">[3]配点区分!#REF!</definedName>
-    <definedName name="向上率１0">[3]配点区分!#REF!</definedName>
-    <definedName name="向上率20">[3]配点区分!#REF!+[3]配点区分!#REF!</definedName>
-    <definedName name="向上率50">[3]配点区分!#REF!</definedName>
-    <definedName name="削減率_5">[3]配点区分!#REF!</definedName>
-    <definedName name="削減率10">[3]配点区分!#REF!</definedName>
-    <definedName name="削減率20">[3]配点区分!#REF!</definedName>
-    <definedName name="仕組みの評価">[3]配点区分!$F$11:$H$11</definedName>
+    <definedName name="向上率_5">[2]配点区分!#REF!</definedName>
+    <definedName name="向上率１0">[2]配点区分!#REF!</definedName>
+    <definedName name="向上率20">[2]配点区分!#REF!+[2]配点区分!#REF!</definedName>
+    <definedName name="向上率50">[2]配点区分!#REF!</definedName>
+    <definedName name="削減率_5">[2]配点区分!#REF!</definedName>
+    <definedName name="削減率10">[2]配点区分!#REF!</definedName>
+    <definedName name="削減率20">[2]配点区分!#REF!</definedName>
+    <definedName name="仕組みの評価">[2]配点区分!$F$11:$H$11</definedName>
     <definedName name="時間">単位list!$D$59:$D$64</definedName>
     <definedName name="重量">単位list!$D$26:$D$30</definedName>
     <definedName name="上限">配点区分!$F$16:$J$16</definedName>
     <definedName name="数量">単位list!$D$54:$D$57</definedName>
     <definedName name="節湯区分">配点区分!$F$12:$J$12</definedName>
-    <definedName name="選択NA" localSheetId="2">[2]配点区分!$L$2:$L$3</definedName>
-    <definedName name="選択区分">[3]配点区分!$B$16:$B$17</definedName>
+    <definedName name="選択NA" localSheetId="2">[1]配点区分!$L$2:$L$3</definedName>
+    <definedName name="選択区分">[2]配点区分!$B$16:$B$17</definedName>
     <definedName name="対象有無">配点区分!$F$18:$J$18</definedName>
     <definedName name="達成率">配点区分!$F$13:$J$13</definedName>
     <definedName name="単位">#REF!</definedName>
@@ -75,7 +74,7 @@
     <definedName name="定性値">単位list!$D$25</definedName>
     <definedName name="電力量">単位list!$D$49:$D$53</definedName>
     <definedName name="配点区分">配点区分!$B$6:$B$14</definedName>
-    <definedName name="配点表" localSheetId="2">[2]配点区分!$B$6:$J$19</definedName>
+    <definedName name="配点表" localSheetId="2">[1]配点区分!$B$6:$J$19</definedName>
     <definedName name="配点表">配点区分!$A$6:$J$14</definedName>
     <definedName name="配点表1">配点区分!$B$6:$J$14</definedName>
     <definedName name="必須確認数">項目list!$AA$3</definedName>
@@ -85,10 +84,15 @@
     <definedName name="容積">単位list!$D$31:$D$36</definedName>
     <definedName name="力">単位list!$D$65</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId11"/>
+    <pivotCache cacheId="5" r:id="rId10"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -131,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="380">
   <si>
     <t>単位ID</t>
   </si>
@@ -946,10 +950,10 @@
     <t>解体時、分別がしやすいように、リサイクル可能な材料を使用した部品の識別表示を行うための管理のレベル</t>
   </si>
   <si>
-    <t>次に示すどのレベルにあるかを評価する。採点は管理レベルの得点区分にならう。_x000D_
-a）重さが製品全重量の5%未満の部品について、解体分離に関する表示ができている（製品本体、ドキュメント類等で）。_x000D_
-b）重さが製品全重量の5%以上～10%未満の部品について、解体分離に関する表示ができている（同）。_x000D_
-c）重さが製品全重量の10%以上の部品について、解体分離に関する表示ができている（同）。_x000D_
+    <t>次に示すどのレベルにあるかを評価する。採点は管理レベルの得点区分にならう。
+a）重さが製品全重量の5%未満の部品について、解体分離に関する表示ができている（製品本体、ドキュメント類等で）。
+b）重さが製品全重量の5%以上～10%未満の部品について、解体分離に関する表示ができている（同）。
+c）重さが製品全重量の10%以上の部品について、解体分離に関する表示ができている（同）。
 d）表示をしていない。</t>
   </si>
   <si>
@@ -1082,19 +1086,20 @@
     <t>重点評価項目（事前に3項目以上を設定しておく）における設計目標値の達成率</t>
   </si>
   <si>
-    <t>達成率の平均が次に示すどのレベルにあるかを評価する。_x000D_
-a） 100％以上_x000D_
-b）　80％～100％未満_x000D_
-c）　60％～80％未満_x000D_
+    <t>達成率の平均が次に示すどのレベルにあるかを評価する。
+a） 100％以上
+b）　80％～100％未満
+c）　60％～80％未満
 d）　59％未満</t>
   </si>
   <si>
-    <t xml:space="preserve">　　　　　　　　　　　　　評価項目の配点方法_x000D_
-_x000D_
-１　評価区分（パターン_x000D_と配点区分）
-評価項目の評価データを入力する際、その評価区分のパターンに設定してある評価配点に従って、自動的に配点が計算されます。_x000D_配点は　4点から0点の間で評価されます_x000D_
-パターンは、最初は規定値が設定されていますが、リストから選択し変更ができます_x000D_
-_x000D_①　数値データ(定量的評価）の場合：　旧製品と新製品の改善割合を％で計算し配点区分に従って評価します。
+    <t xml:space="preserve">　　　　　　　　　　　　　評価項目の配点方法
+１　評価区分（パターン
+と配点区分）
+評価項目の評価データを入力する際、その評価区分のパターンに設定してある評価配点に従って、自動的に配点が計算されます。
+配点は　4点から0点の間で評価されます
+パターンは、最初は規定値が設定されていますが、リストから選択し変更ができます
+①　数値データ(定量的評価）の場合：　旧製品と新製品の改善割合を％で計算し配点区分に従って評価します。
 　例　
 　　　　　　　　　　　　　　　　　　　　　パターン　　削減率　新製品　　旧製品　　評価計算結果
 　製品重量は軽減されているか　削減率10%　　20%　　800g　　　1000g　　　　　　　4点　　　　　　
@@ -1103,17 +1108,16 @@
 　　　　　　　　　　　　　　　　　　　　　パターン　　　　　　　　新製品　　旧製品　　評価計算結果
 　QMS(ISO9000)への取り組み　　有無　　　　　　　　　　　有り　　　　　　　　　　　　　　4点　　　　　　
 　はされているか
-２　総合評価の平均点計算方法_x000D_
-_x000D_
-①　総合評価は評価項目の大分類ごとの平均点でも評価できます。_x000D_
-②　大分類毎の平均点の出し方_x000D_
+２　総合評価の平均点計算方法
+①　総合評価は評価項目の大分類ごとの平均点でも評価できます。
+②　大分類毎の平均点の出し方
 　　　　平均点　＝　評価点合計　÷　(評価項目数　＋　不足小分類数）　％
-③　評価項目数_x000D_
-　　　　実際に評価データが入力された個別評価項目数_x000D_
+③　評価項目数
+　　　　実際に評価データが入力された個別評価項目数
 ④　不足小分類数
 　大分類に中の小分類で評価データがなかった小分類数
-　少なくも各小分類に一つは評価されるものとします。_x000D_
-小分類に該当評価項目がないときでもその小分類には評価項目数として各一つが加えられます（この場合の小分類の配点が0点となります）.。._x000D_
+　少なくも各小分類に一つは評価されるものとします。
+小分類に該当評価項目がないときでもその小分類には評価項目数として各一つが加えられます（この場合の小分類の配点が0点となります）.。.
 </t>
     <rPh sb="39" eb="41">
       <t>ハイテン</t>
@@ -1401,9 +1405,6 @@
     <t>管理レベル</t>
   </si>
   <si>
-    <t>プロセスが標準化及び文書化され、その遵守状況の把握・測定が可能。プロセスが有効に機能していない場合は修正が行われ、継続的に改善されている。</t>
-  </si>
-  <si>
     <t>プロセスが標準化及び文書化され、訓練により伝達されている。しかし、このようなプロセスは個人に依存しており、逸脱が存在する可能性がある。</t>
   </si>
   <si>
@@ -1453,16 +1454,16 @@
   </si>
   <si>
     <t>番号　　　　　</t>
-  </si>
-  <si>
-    <t>・製品評価時に、エネルギー消費削減量を計るときは、母数に、生産台数、売上額などを適宜設定する。_x000D_
-・評価対象製品の全製造工程のエネルギー消費量を厳密に測定するのが難しい場合は、事業者で一定の決めを設け、測定対象範囲を限定して評価してもよい（鋳物製造工程に限定する、加工に時間がかかり使用電力が大きい弁体や弁箱等の大きな部品の製造工程に限定する、等）。</t>
   </si>
   <si>
     <t>・製品評価時に、エネルギー消費削減量を計るときは、母数に、生産台数、売上額などを適宜設定する。
 ・評価対象製品の全製造工程のエネルギー消費量を厳密に測定するのが難しい場合は、事業者で一定の決めを設け、測定対象範囲を限定して評価してもよい（鋳物製造工程に限定する、加工に時間がかかり使用電力が大きい弁体や弁箱等の大きな部品の製造工程に限定する、等）。</t>
   </si>
   <si>
+    <t>・製品評価時に、エネルギー消費削減量を計るときは、母数に、生産台数、売上額などを適宜設定する。
+・評価対象製品の全製造工程のエネルギー消費量を厳密に測定するのが難しい場合は、事業者で一定の決めを設け、測定対象範囲を限定して評価してもよい（鋳物製造工程に限定する、加工に時間がかかり使用電力が大きい弁体や弁箱等の大きな部品の製造工程に限定する、等）。</t>
+  </si>
+  <si>
     <t>・これら項目の評価では、全構成部品の個別素材重量、完成品重量、寸法、体積が把握管理されていることが必要。
 ・体積については、厳密に求めた数値を用いるか、外形寸法を用いるかは事業者で一定の決めを設定する。</t>
   </si>
@@ -1470,14 +1471,15 @@
     <t>製品全体の重量が変わらない場合も、設計改善（歩留まり、不良率改善等）による材料の削減量を評価する。歩留まり、不良率評価は、設計試作、量産試作段階で実施する。</t>
   </si>
   <si>
-    <t>_x000D_
-【標準部品とは】_x000D_
-本ガイドラインでは、一般規格部品、複数の製品で使用可能な部品、同一製品内でも複数使用する部品などを標準部品とするが、詳細な定義は事業者が決めてもよい。_x000D_
-【部品の共通化とは】_x000D_
+    <t xml:space="preserve">
+【標準部品とは】
+本ガイドラインでは、一般規格部品、複数の製品で使用可能な部品、同一製品内でも複数使用する部品などを標準部品とするが、詳細な定義は事業者が決めてもよい。
+【部品の共通化とは】
 設計段階で標準部品が設定された結果、その部品を共通利用することで、調達、在庫管理、生産、保守など大幅なコスト削減が望める</t>
   </si>
   <si>
-    <t>_x000D_【標準部品とは】
+    <t xml:space="preserve">
+【標準部品とは】
 本ガイドラインでは、一般規格部品、複数の製品で使用可能な部品、同一製品内でも複数使用する部品などを標準部品とするが、詳細な定義は事業者が決めてもよい。
 【部品の共通化とは】
 設計段階で標準部品が設定された結果、その部品を共通利用することで、調達、在庫管理、生産、保守など大幅なコスト削減が望める</t>
@@ -1553,8 +1555,8 @@
 ・リサイクル可能な材料、リサイクルされた材料ともに、製品全体の体積又は重量に対する使用率を指標として評価する。</t>
   </si>
   <si>
-    <t xml:space="preserve">・取扱説明書、HP、図面、注意書き等への表示の有無と見やすさを評価する。_x000D_
-・重さで部品を分類し、どれくらい細かい部品にまで識別表示ができているかを評価する。_x000D_
+    <t xml:space="preserve">・取扱説明書、HP、図面、注意書き等への表示の有無と見やすさを評価する。
+・重さで部品を分類し、どれくらい細かい部品にまで識別表示ができているかを評価する。
 </t>
   </si>
   <si>
@@ -1608,8 +1610,37 @@
     <t>利用者が必要情報（カタログ、仕様書、図面、取扱説明書、含有物質リスト、RoHS証明書、その他環境関連の証明書等）にいつでもペーパーレスでアクセスできる環境を提供できているか、デジタル化率として評価する。</t>
   </si>
   <si>
-    <t xml:space="preserve">製品開発時点で、関連部署を包括した環境配慮設計実施のためのプロジェクトが構成され、環境配慮設計の目標値管理、評価、レビューなどを行うしくみが準備されていることが必要となる。_x000D_
+    <t xml:space="preserve">製品開発時点で、関連部署を包括した環境配慮設計実施のためのプロジェクトが構成され、環境配慮設計の目標値管理、評価、レビューなどを行うしくみが準備されていることが必要となる。
 </t>
+  </si>
+  <si>
+    <t>1 計</t>
+  </si>
+  <si>
+    <t>2 計</t>
+  </si>
+  <si>
+    <t>3 計</t>
+  </si>
+  <si>
+    <t>4 計</t>
+  </si>
+  <si>
+    <t>6 計</t>
+  </si>
+  <si>
+    <t>7 計</t>
+  </si>
+  <si>
+    <t>8 計</t>
+  </si>
+  <si>
+    <t>Up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセスが標準化及び文書化され、その遵守状況の把握・測定が可能。プロセスが有効に機能していない場合は修正が行われ、継続的に改善されている。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1620,7 +1651,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1676,6 +1707,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1713,38 +1752,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1752,27 +1791,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1780,28 +1819,28 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1809,8 +1848,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1829,14 +1877,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1846,9 +1888,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1938,18 +1977,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1965,11 +1992,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2042,6 +2096,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2051,10 +2106,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3035820087880625E-2"/>
-          <c:y val="0.13833897893197364"/>
-          <c:w val="0.85005061867266596"/>
-          <c:h val="0.66999175471137973"/>
+          <c:x val="0.0930358200878807"/>
+          <c:y val="0.138338978931974"/>
+          <c:w val="0.850050618672666"/>
+          <c:h val="0.66999175471138"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2112,25 +2167,25 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,25 +2242,25 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,11 +2275,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="414296320"/>
-        <c:axId val="414302208"/>
+        <c:axId val="-2114007896"/>
+        <c:axId val="-2114013272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414296320"/>
+        <c:axId val="-2114007896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414302208"/>
+        <c:crossAx val="-2114013272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2242,10 +2297,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414302208"/>
+        <c:axId val="-2114013272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2261,13 +2316,14 @@
             </a:sysClr>
           </a:solidFill>
         </c:spPr>
-        <c:crossAx val="414296320"/>
+        <c:crossAx val="-2114007896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2297,6 +2353,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2368,22 +2425,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,11 +2454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411024768"/>
-        <c:axId val="414475776"/>
+        <c:axId val="-2113950904"/>
+        <c:axId val="-2114963848"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="411024768"/>
+        <c:axId val="-2113950904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +2469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414475776"/>
+        <c:crossAx val="-2114963848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2420,11 +2477,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414475776"/>
+        <c:axId val="-2114963848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2433,7 +2490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411024768"/>
+        <c:crossAx val="-2113950904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2820,7 +2877,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4412,167 +4469,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="マニュアル"/>
-      <sheetName val="Report (2)"/>
-      <sheetName val="単位list"/>
-      <sheetName val="簡易診断"/>
-      <sheetName val="診断list"/>
-      <sheetName val="診断レポート"/>
-      <sheetName val="使用説明（しくみ）"/>
-      <sheetName val="Top"/>
-      <sheetName val="Report"/>
-      <sheetName val="項目list"/>
-      <sheetName val="Document"/>
-      <sheetName val="評価list"/>
-      <sheetName val="レアメタル"/>
-      <sheetName val="成熟度モデル"/>
-      <sheetName val="配点について"/>
-      <sheetName val="評価分類list"/>
-      <sheetName val="既定評価項目list"/>
-      <sheetName val="配点区分"/>
-      <sheetName val="評価指針"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="4">
-          <cell r="H4" t="str">
-            <v>ポイント計</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>データの個数</v>
-          </cell>
-          <cell r="N4" t="str">
-            <v>平均点</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5" t="str">
-            <v>省エネルギー</v>
-          </cell>
-          <cell r="H5">
-            <v>0</v>
-          </cell>
-          <cell r="I5">
-            <v>0</v>
-          </cell>
-          <cell r="N5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6" t="str">
-            <v>リデュース</v>
-          </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
-          <cell r="I6">
-            <v>0</v>
-          </cell>
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7" t="str">
-            <v>リユース</v>
-          </cell>
-          <cell r="H7">
-            <v>0</v>
-          </cell>
-          <cell r="I7">
-            <v>0</v>
-          </cell>
-          <cell r="N7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8" t="str">
-            <v>リサイクル</v>
-          </cell>
-          <cell r="H8">
-            <v>0</v>
-          </cell>
-          <cell r="I8">
-            <v>0</v>
-          </cell>
-          <cell r="N8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9" t="str">
-            <v>環境・安全</v>
-          </cell>
-          <cell r="H9">
-            <v>0</v>
-          </cell>
-          <cell r="I9">
-            <v>0</v>
-          </cell>
-          <cell r="N9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10" t="str">
-            <v>情報提供</v>
-          </cell>
-          <cell r="H10">
-            <v>0</v>
-          </cell>
-          <cell r="I10">
-            <v>0</v>
-          </cell>
-          <cell r="N10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11" t="str">
-            <v>管理</v>
-          </cell>
-          <cell r="H11">
-            <v>0</v>
-          </cell>
-          <cell r="I11">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="マニュアル"/>
@@ -4970,8 +4867,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Top"/>
@@ -5028,7 +4925,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="kohey" refreshedDate="42209.36939699074" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="35">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="矢作 裕之" refreshedDate="42473.495428472219" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="35">
   <cacheSource type="worksheet">
     <worksheetSource name="Pivot製品"/>
   </cacheSource>
@@ -5154,7 +5051,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="B42:H70" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="25">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -5353,16 +5250,16 @@
     <dataField name="選択・必須数" fld="23" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea field="22" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4">
@@ -5671,19 +5568,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet21"/>
+  <sheetPr codeName="Sheet21" enableFormatConditionsCalculation="0"/>
   <dimension ref="A5:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D73" sqref="D25:D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:3">
@@ -6544,24 +6441,30 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <outlinePr showOutlineSymbols="0"/>
   </sheetPr>
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" showZeros="0" showOutlineSymbols="0" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" showZeros="0" showOutlineSymbols="0" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:11">
@@ -6572,7 +6475,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="5" spans="4:11" ht="30.6" customHeight="1">
+    <row r="5" spans="4:11" ht="30.5" customHeight="1">
       <c r="D5" s="5" t="s">
         <v>66</v>
       </c>
@@ -6582,7 +6485,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="4:11" ht="30.6" customHeight="1">
+    <row r="6" spans="4:11" ht="30.5" customHeight="1">
       <c r="E6" t="s">
         <v>67</v>
       </c>
@@ -6598,40 +6501,40 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6648,37 +6551,41 @@
     <hyperlink ref="B36:F36" location="レアメタル!A1" display="レアメタル・レアアース一覧"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet16">
+  <sheetPr codeName="Sheet16" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="72" zoomScalePageLayoutView="51" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="72" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="14" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="8.625" customWidth="1"/>
-    <col min="16" max="16" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="19" max="19" width="23.125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -6686,398 +6593,398 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="40.5">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:15" ht="41">
+      <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="G4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="44">
         <v>66</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="G5" s="10" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="G5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="10">
-        <f>IF(ISERROR(VLOOKUP($O5,Pivot範囲2,4,FALSE)) = TRUE,0, VLOOKUP($O5,Pivot範囲2,4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <f>IF(ISERROR(VLOOKUP($O5,Pivot範囲2,5,FALSE)) = TRUE,0, VLOOKUP($O5,Pivot範囲2,5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O5,Pivot範囲2,10,FALSE)) = TRUE,0, VLOOKUP($O5,Pivot範囲2,10,FALSE))</f>
-        <v>3</v>
-      </c>
-      <c r="L5" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O5,Pivot範囲2,12,FALSE)) = TRUE,0, VLOOKUP($O5,Pivot範囲2,12,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <f ca="1">IF(ISERROR(SUM($I$5:$K$5)-$L$5) = TRUE,0,SUM($I$5:$K$5)-$L$5)</f>
-        <v>3</v>
-      </c>
-      <c r="N5" s="11">
-        <f ca="1">IF($M$5&gt;0,$H$5/$M$5/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="10" t="s">
+      <c r="H5" s="8">
+        <f t="shared" ref="H5:H11" si="0">IF(ISERROR(VLOOKUP($O5,Pivot範囲2,4,FALSE)) = TRUE,0, VLOOKUP($O5,Pivot範囲2,4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:I11" si="1">IF(ISERROR(VLOOKUP($O5,Pivot範囲2,5,FALSE)) = TRUE,0, VLOOKUP($O5,Pivot範囲2,5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K11" si="2">IF(ISERROR(VLOOKUP($O5,Pivot範囲2,10,FALSE)) = TRUE,0, VLOOKUP($O5,Pivot範囲2,10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" ref="L5:L11" si="3">IF(ISERROR(VLOOKUP($O5,Pivot範囲2,12,FALSE)) = TRUE,0, VLOOKUP($O5,Pivot範囲2,12,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <f>IF(ISERROR(SUM($I$5:$K$5)-$L$5) = TRUE,0,SUM($I$5:$K$5)-$L$5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <f>IF($M$5&gt;0,$H$5/$M$5/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="G6" s="10" t="s">
+      <c r="C6" s="44">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="G6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="10">
-        <f>IF(ISERROR(VLOOKUP($O6,Pivot範囲2,4,FALSE)) = TRUE,0, VLOOKUP($O6,Pivot範囲2,4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <f>IF(ISERROR(VLOOKUP($O6,Pivot範囲2,5,FALSE)) = TRUE,0, VLOOKUP($O6,Pivot範囲2,5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O6,Pivot範囲2,10,FALSE)) = TRUE,0, VLOOKUP($O6,Pivot範囲2,10,FALSE))</f>
-        <v>7</v>
-      </c>
-      <c r="L6" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O6,Pivot範囲2,12,FALSE)) = TRUE,0, VLOOKUP($O6,Pivot範囲2,12,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
-        <f ca="1">IF(ISERROR(SUM($I$6:$K$6)-$L$6) = TRUE,0,SUM($I$6:$K$6)-$L$6)</f>
-        <v>7</v>
-      </c>
-      <c r="N6" s="11">
-        <f ca="1">IF($M$6&gt;0,$H$6/$M$6/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <f>IF(ISERROR(SUM($I$6:$K$6)-$L$6) = TRUE,0,SUM($I$6:$K$6)-$L$6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <f>IF($M$6&gt;0,$H$6/$M$6/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="G7" s="10" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="G7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="10">
-        <f>IF(ISERROR(VLOOKUP($O7,Pivot範囲2,4,FALSE)) = TRUE,0, VLOOKUP($O7,Pivot範囲2,4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <f>IF(ISERROR(VLOOKUP($O7,Pivot範囲2,5,FALSE)) = TRUE,0, VLOOKUP($O7,Pivot範囲2,5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O7,Pivot範囲2,10,FALSE)) = TRUE,0, VLOOKUP($O7,Pivot範囲2,10,FALSE))</f>
-        <v>2</v>
-      </c>
-      <c r="L7" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O7,Pivot範囲2,12,FALSE)) = TRUE,0, VLOOKUP($O7,Pivot範囲2,12,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <f ca="1">IF(ISERROR(SUM($I$7:$K$7)-$L$7) = TRUE,0,SUM($I$7:$K$7)-$L$7)</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="11">
-        <f ca="1">IF($M$7&gt;0,$H$7/$M$7/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="10" t="s">
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <f>IF(ISERROR(SUM($I$7:$K$7)-$L$7) = TRUE,0,SUM($I$7:$K$7)-$L$7)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <f>IF($M$7&gt;0,$H$7/$M$7/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="10" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="G8" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="10">
-        <f>IF(ISERROR(VLOOKUP($O8,Pivot範囲2,4,FALSE)) = TRUE,0, VLOOKUP($O8,Pivot範囲2,4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <f>IF(ISERROR(VLOOKUP($O8,Pivot範囲2,5,FALSE)) = TRUE,0, VLOOKUP($O8,Pivot範囲2,5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O8,Pivot範囲2,10,FALSE)) = TRUE,0, VLOOKUP($O8,Pivot範囲2,10,FALSE))</f>
-        <v>2</v>
-      </c>
-      <c r="L8" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O8,Pivot範囲2,12,FALSE)) = TRUE,0, VLOOKUP($O8,Pivot範囲2,12,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
-        <f ca="1">IF(ISERROR(SUM($I$8:$K$8)-$L$8) = TRUE,0,SUM($I$8:$K$8)-$L$8)</f>
-        <v>2</v>
-      </c>
-      <c r="N8" s="11">
-        <f ca="1">IF($M$8&gt;0,$H$8/$M$8/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="10" t="s">
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <f>IF(ISERROR(SUM($I$8:$K$8)-$L$8) = TRUE,0,SUM($I$8:$K$8)-$L$8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <f>IF($M$8&gt;0,$H$8/$M$8/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="10" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="G9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="10">
-        <f>IF(ISERROR(VLOOKUP($O9,Pivot範囲2,4,FALSE)) = TRUE,0, VLOOKUP($O9,Pivot範囲2,4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <f>IF(ISERROR(VLOOKUP($O9,Pivot範囲2,5,FALSE)) = TRUE,0, VLOOKUP($O9,Pivot範囲2,5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O9,Pivot範囲2,10,FALSE)) = TRUE,0, VLOOKUP($O9,Pivot範囲2,10,FALSE))</f>
-        <v>3</v>
-      </c>
-      <c r="L9" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O9,Pivot範囲2,12,FALSE)) = TRUE,0, VLOOKUP($O9,Pivot範囲2,12,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <f ca="1">IF(ISERROR(SUM($I$9:$K$9)-$L$9) = TRUE,0,SUM($I$9:$K$9)-$L$9)</f>
-        <v>3</v>
-      </c>
-      <c r="N9" s="11">
-        <f ca="1">IF($M$9&gt;0,$H$9/$M$9/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="10" t="s">
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <f>IF(ISERROR(SUM($I$9:$K$9)-$L$9) = TRUE,0,SUM($I$9:$K$9)-$L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <f>IF($M$9&gt;0,$H$9/$M$9/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="G10" s="10" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="G10" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="10">
-        <f>IF(ISERROR(VLOOKUP($O10,Pivot範囲2,4,FALSE)) = TRUE,0, VLOOKUP($O10,Pivot範囲2,4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <f>IF(ISERROR(VLOOKUP($O10,Pivot範囲2,5,FALSE)) = TRUE,0, VLOOKUP($O10,Pivot範囲2,5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O10,Pivot範囲2,10,FALSE)) = TRUE,0, VLOOKUP($O10,Pivot範囲2,10,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="L10" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O10,Pivot範囲2,12,FALSE)) = TRUE,0, VLOOKUP($O10,Pivot範囲2,12,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <f ca="1">IF(ISERROR(SUM($I$10:$K$10)-$L$10) = TRUE,0,SUM($I$10:$K$10)-$L$10)</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="11">
-        <f ca="1">IF($M$10&gt;0,$H$10/$M$10/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="10" t="s">
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <f>IF(ISERROR(SUM($I$10:$K$10)-$L$10) = TRUE,0,SUM($I$10:$K$10)-$L$10)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <f>IF($M$10&gt;0,$H$10/$M$10/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="45">
         <v>42209</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="10" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="G11" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="10">
-        <f>IF(ISERROR(VLOOKUP($O11,Pivot範囲2,4,FALSE)) = TRUE,0, VLOOKUP($O11,Pivot範囲2,4,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <f>IF(ISERROR(VLOOKUP($O11,Pivot範囲2,5,FALSE)) = TRUE,0, VLOOKUP($O11,Pivot範囲2,5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O11,Pivot範囲2,10,FALSE)) = TRUE,0, VLOOKUP($O11,Pivot範囲2,10,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
-        <f ca="1">IF(ISERROR(VLOOKUP($O11,Pivot範囲2,12,FALSE)) = TRUE,0, VLOOKUP($O11,Pivot範囲2,12,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <f ca="1">IF(ISERROR(SUM($I$11:$K$11)-$L$11) = TRUE,0,SUM($I$11:$K$11)-$L$11)</f>
-        <v>1</v>
-      </c>
-      <c r="N11" s="11">
-        <f ca="1">IF($M$11&gt;0,$H$11/$M$11/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="10" t="s">
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <f>IF(ISERROR(SUM($I$11:$K$11)-$L$11) = TRUE,0,SUM($I$11:$K$11)-$L$11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <f>IF($M$11&gt;0,$H$11/$M$11/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="27" customHeight="1">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="G12" s="10" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="G12" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <f>SUM(H5:H11)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" ref="I12:M12" si="0">SUM(I5:I11)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L12" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="N12" s="11">
-        <f ca="1">IF($M$12&gt;0,$H$12/$M$12/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="10"/>
+      <c r="I12" s="8">
+        <f t="shared" ref="I12:M12" si="4">SUM(I5:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <f>IF($M$12&gt;0,$H$12/$M$12/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="8"/>
     </row>
     <row r="16" spans="2:15" ht="24" customHeight="1"/>
     <row r="42" spans="2:14">
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="41" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="2:14" s="13" customFormat="1" ht="40.5">
-      <c r="B43" s="49" t="s">
+    <row r="43" spans="2:14" s="10" customFormat="1" ht="41">
+      <c r="B43" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="37" t="s">
         <v>118</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -7106,33 +7013,33 @@
       <c r="D44" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="14">
-        <v>0</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14">
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11">
         <v>2</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="11">
         <v>2</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="12">
         <f>IF(RIGHT($B44,2)&lt;&gt;"集計",0,MATCH(INT(LEFT($B44,1)),$B$43:$B$70,0)+ 42)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="15" t="str">
+      <c r="K44" s="12" t="str">
         <f ca="1">IF(RIGHT($B44,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J44,6)):OFFSET($F44,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L44" s="15" t="str">
+      <c r="L44" s="12" t="str">
         <f>IF($G44="","",IF($F44="",$D44,""))</f>
         <v>1.1.1</v>
       </c>
-      <c r="M44" s="15" t="str">
+      <c r="M44" s="12" t="str">
         <f ca="1">IF(RIGHT($B44,2)="集計",COUNTIF(INDIRECT(ADDRESS($J44,8)):OFFSET($H44,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N44" s="15" t="str">
+      <c r="N44" s="12" t="str">
         <f>IF($G44="","",IF($H44=0,$D44,""))</f>
         <v/>
       </c>
@@ -7141,34 +7048,34 @@
       <c r="D45" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="14">
-        <v>0</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14">
-        <v>1</v>
-      </c>
-      <c r="H45" s="14">
-        <v>1</v>
-      </c>
-      <c r="J45" s="15">
-        <f t="shared" ref="J45:J70" si="1">IF(RIGHT($B45,2)&lt;&gt;"集計",0,MATCH(INT(LEFT($B45,1)),$B$43:$B$70,0)+ 42)</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="15" t="str">
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11">
+        <v>1</v>
+      </c>
+      <c r="J45" s="12">
+        <f t="shared" ref="J45:J70" si="5">IF(RIGHT($B45,2)&lt;&gt;"集計",0,MATCH(INT(LEFT($B45,1)),$B$43:$B$70,0)+ 42)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="12" t="str">
         <f ca="1">IF(RIGHT($B45,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J45,6)):OFFSET($F45,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L45" s="15" t="str">
-        <f t="shared" ref="L45:L70" si="2">IF($G45="","",IF($F45="",$D45,""))</f>
+      <c r="L45" s="12" t="str">
+        <f t="shared" ref="L45:L70" si="6">IF($G45="","",IF($F45="",$D45,""))</f>
         <v>1.1.2</v>
       </c>
-      <c r="M45" s="15" t="str">
+      <c r="M45" s="12" t="str">
         <f ca="1">IF(RIGHT($B45,2)="集計",COUNTIF(INDIRECT(ADDRESS($J45,8)):OFFSET($H45,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N45" s="15" t="str">
-        <f t="shared" ref="N45:N70" si="3">IF($G45="","",IF($H45=0,$D45,""))</f>
+      <c r="N45" s="12" t="str">
+        <f t="shared" ref="N45:N70" si="7">IF($G45="","",IF($H45=0,$D45,""))</f>
         <v/>
       </c>
     </row>
@@ -7176,69 +7083,69 @@
       <c r="D46" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="14">
-        <v>0</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14">
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11">
         <v>2</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="11">
         <v>2</v>
       </c>
-      <c r="J46" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="15" t="str">
+      <c r="J46" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="12" t="str">
         <f ca="1">IF(RIGHT($B46,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J46,6)):OFFSET($F46,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L46" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L46" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>1.1.3</v>
       </c>
-      <c r="M46" s="15" t="str">
+      <c r="M46" s="12" t="str">
         <f ca="1">IF(RIGHT($B46,2)="集計",COUNTIF(INDIRECT(ADDRESS($J46,8)):OFFSET($H46,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N46" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N46" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="14">
-        <v>0</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14">
+        <v>371</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11">
         <v>5</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="11">
         <v>5</v>
       </c>
-      <c r="J47" s="15">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K47" s="15">
+      <c r="J47" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="12" t="str">
         <f ca="1">IF(RIGHT($B47,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J47,6)):OFFSET($F47,-1,0,1,1)),"")</f>
-        <v>3</v>
-      </c>
-      <c r="L47" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
+        <v/>
+      </c>
+      <c r="L47" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="12" t="str">
         <f ca="1">IF(RIGHT($B47,2)="集計",COUNTIF(INDIRECT(ADDRESS($J47,8)):OFFSET($H47,-1,0,1,1),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="15" t="str">
-        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N47" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7252,34 +7159,34 @@
       <c r="D48" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="14">
-        <v>0</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14">
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11">
         <v>3</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="11">
         <v>3</v>
       </c>
-      <c r="J48" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="15" t="str">
+      <c r="J48" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="12" t="str">
         <f ca="1">IF(RIGHT($B48,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J48,6)):OFFSET($F48,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L48" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L48" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>2.1.1</v>
       </c>
-      <c r="M48" s="15" t="str">
+      <c r="M48" s="12" t="str">
         <f ca="1">IF(RIGHT($B48,2)="集計",COUNTIF(INDIRECT(ADDRESS($J48,8)):OFFSET($H48,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N48" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N48" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7287,34 +7194,34 @@
       <c r="D49" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="14">
-        <v>0</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14">
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11">
         <v>2</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="11">
         <v>2</v>
       </c>
-      <c r="J49" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="15" t="str">
+      <c r="J49" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="12" t="str">
         <f ca="1">IF(RIGHT($B49,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J49,6)):OFFSET($F49,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L49" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L49" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>2.1.2</v>
       </c>
-      <c r="M49" s="15" t="str">
+      <c r="M49" s="12" t="str">
         <f ca="1">IF(RIGHT($B49,2)="集計",COUNTIF(INDIRECT(ADDRESS($J49,8)):OFFSET($H49,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N49" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N49" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7322,34 +7229,34 @@
       <c r="D50" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="14">
-        <v>0</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14">
-        <v>1</v>
-      </c>
-      <c r="H50" s="14">
-        <v>1</v>
-      </c>
-      <c r="J50" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="15" t="str">
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="12" t="str">
         <f ca="1">IF(RIGHT($B50,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J50,6)):OFFSET($F50,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L50" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L50" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>2.1.3</v>
       </c>
-      <c r="M50" s="15" t="str">
+      <c r="M50" s="12" t="str">
         <f ca="1">IF(RIGHT($B50,2)="集計",COUNTIF(INDIRECT(ADDRESS($J50,8)):OFFSET($H50,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N50" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N50" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7357,34 +7264,34 @@
       <c r="D51" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="14">
-        <v>0</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14">
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11">
         <v>3</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="11">
         <v>3</v>
       </c>
-      <c r="J51" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="15" t="str">
+      <c r="J51" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="12" t="str">
         <f ca="1">IF(RIGHT($B51,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J51,6)):OFFSET($F51,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L51" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L51" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>2.1.5</v>
       </c>
-      <c r="M51" s="15" t="str">
+      <c r="M51" s="12" t="str">
         <f ca="1">IF(RIGHT($B51,2)="集計",COUNTIF(INDIRECT(ADDRESS($J51,8)):OFFSET($H51,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N51" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N51" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7392,34 +7299,34 @@
       <c r="D52" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="14">
-        <v>0</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14">
-        <v>1</v>
-      </c>
-      <c r="H52" s="14">
-        <v>1</v>
-      </c>
-      <c r="J52" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="15" t="str">
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11">
+        <v>1</v>
+      </c>
+      <c r="H52" s="11">
+        <v>1</v>
+      </c>
+      <c r="J52" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="12" t="str">
         <f ca="1">IF(RIGHT($B52,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J52,6)):OFFSET($F52,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L52" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L52" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>2.2.1</v>
       </c>
-      <c r="M52" s="15" t="str">
+      <c r="M52" s="12" t="str">
         <f ca="1">IF(RIGHT($B52,2)="集計",COUNTIF(INDIRECT(ADDRESS($J52,8)):OFFSET($H52,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N52" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N52" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7427,34 +7334,34 @@
       <c r="D53" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="14">
-        <v>0</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14">
-        <v>1</v>
-      </c>
-      <c r="H53" s="14">
-        <v>1</v>
-      </c>
-      <c r="J53" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="15" t="str">
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11">
+        <v>1</v>
+      </c>
+      <c r="H53" s="11">
+        <v>1</v>
+      </c>
+      <c r="J53" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="12" t="str">
         <f ca="1">IF(RIGHT($B53,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J53,6)):OFFSET($F53,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L53" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L53" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>2.3.1</v>
       </c>
-      <c r="M53" s="15" t="str">
+      <c r="M53" s="12" t="str">
         <f ca="1">IF(RIGHT($B53,2)="集計",COUNTIF(INDIRECT(ADDRESS($J53,8)):OFFSET($H53,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N53" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N53" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7462,69 +7369,69 @@
       <c r="D54" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="14">
-        <v>0</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14">
-        <v>1</v>
-      </c>
-      <c r="H54" s="14">
-        <v>1</v>
-      </c>
-      <c r="J54" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="15" t="str">
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11">
+        <v>1</v>
+      </c>
+      <c r="H54" s="11">
+        <v>1</v>
+      </c>
+      <c r="J54" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="12" t="str">
         <f ca="1">IF(RIGHT($B54,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J54,6)):OFFSET($F54,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L54" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L54" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>2.3.2</v>
       </c>
-      <c r="M54" s="15" t="str">
+      <c r="M54" s="12" t="str">
         <f ca="1">IF(RIGHT($B54,2)="集計",COUNTIF(INDIRECT(ADDRESS($J54,8)):OFFSET($H54,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N54" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N54" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:14">
       <c r="B55" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="14">
-        <v>0</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14">
+        <v>372</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11">
         <v>12</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="11">
         <v>12</v>
       </c>
-      <c r="J55" s="15">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="K55" s="15">
+      <c r="J55" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="12" t="str">
         <f ca="1">IF(RIGHT($B55,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J55,6)):OFFSET($F55,-1,0,1,1)),"")</f>
-        <v>7</v>
-      </c>
-      <c r="L55" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
+        <v/>
+      </c>
+      <c r="L55" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="12" t="str">
         <f ca="1">IF(RIGHT($B55,2)="集計",COUNTIF(INDIRECT(ADDRESS($J55,8)):OFFSET($H55,-1,0,1,1),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="15" t="str">
-        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N55" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7538,34 +7445,34 @@
       <c r="D56" t="s">
         <v>133</v>
       </c>
-      <c r="E56" s="14">
-        <v>0</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14">
-        <v>1</v>
-      </c>
-      <c r="H56" s="14">
-        <v>1</v>
-      </c>
-      <c r="J56" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="15" t="str">
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11">
+        <v>1</v>
+      </c>
+      <c r="H56" s="11">
+        <v>1</v>
+      </c>
+      <c r="J56" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="12" t="str">
         <f ca="1">IF(RIGHT($B56,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J56,6)):OFFSET($F56,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L56" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L56" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>3.1.1</v>
       </c>
-      <c r="M56" s="15" t="str">
+      <c r="M56" s="12" t="str">
         <f ca="1">IF(RIGHT($B56,2)="集計",COUNTIF(INDIRECT(ADDRESS($J56,8)):OFFSET($H56,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N56" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N56" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7573,69 +7480,69 @@
       <c r="D57" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="14">
-        <v>0</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14">
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11">
         <v>2</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="11">
         <v>2</v>
       </c>
-      <c r="J57" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="15" t="str">
+      <c r="J57" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="12" t="str">
         <f ca="1">IF(RIGHT($B57,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J57,6)):OFFSET($F57,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L57" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L57" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>3.1.2</v>
       </c>
-      <c r="M57" s="15" t="str">
+      <c r="M57" s="12" t="str">
         <f ca="1">IF(RIGHT($B57,2)="集計",COUNTIF(INDIRECT(ADDRESS($J57,8)):OFFSET($H57,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N57" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N57" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="2:14">
       <c r="B58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="14">
-        <v>0</v>
-      </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14">
+        <v>373</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11">
         <v>3</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="11">
         <v>3</v>
       </c>
-      <c r="J58" s="15">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="K58" s="15">
+      <c r="J58" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="12" t="str">
         <f ca="1">IF(RIGHT($B58,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J58,6)):OFFSET($F58,-1,0,1,1)),"")</f>
-        <v>2</v>
-      </c>
-      <c r="L58" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="15">
+        <v/>
+      </c>
+      <c r="L58" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="12" t="str">
         <f ca="1">IF(RIGHT($B58,2)="集計",COUNTIF(INDIRECT(ADDRESS($J58,8)):OFFSET($H58,-1,0,1,1),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="15" t="str">
-        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N58" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7649,34 +7556,34 @@
       <c r="D59" t="s">
         <v>135</v>
       </c>
-      <c r="E59" s="14">
-        <v>0</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14">
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11">
         <v>2</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="11">
         <v>2</v>
       </c>
-      <c r="J59" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="15" t="str">
+      <c r="J59" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="12" t="str">
         <f ca="1">IF(RIGHT($B59,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J59,6)):OFFSET($F59,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L59" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L59" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>4.1.1</v>
       </c>
-      <c r="M59" s="15" t="str">
+      <c r="M59" s="12" t="str">
         <f ca="1">IF(RIGHT($B59,2)="集計",COUNTIF(INDIRECT(ADDRESS($J59,8)):OFFSET($H59,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N59" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N59" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7684,69 +7591,69 @@
       <c r="D60" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="14">
-        <v>0</v>
-      </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14">
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11">
         <v>3</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="11">
         <v>3</v>
       </c>
-      <c r="J60" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="15" t="str">
+      <c r="J60" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="12" t="str">
         <f ca="1">IF(RIGHT($B60,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J60,6)):OFFSET($F60,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L60" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L60" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>4.2.2</v>
       </c>
-      <c r="M60" s="15" t="str">
+      <c r="M60" s="12" t="str">
         <f ca="1">IF(RIGHT($B60,2)="集計",COUNTIF(INDIRECT(ADDRESS($J60,8)):OFFSET($H60,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N60" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N60" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="2:14">
       <c r="B61" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="14">
-        <v>0</v>
-      </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14">
+        <v>374</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11">
         <v>5</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="11">
         <v>5</v>
       </c>
-      <c r="J61" s="15">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="K61" s="15">
+      <c r="J61" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="12" t="str">
         <f ca="1">IF(RIGHT($B61,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J61,6)):OFFSET($F61,-1,0,1,1)),"")</f>
-        <v>2</v>
-      </c>
-      <c r="L61" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="15">
+        <v/>
+      </c>
+      <c r="L61" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="12" t="str">
         <f ca="1">IF(RIGHT($B61,2)="集計",COUNTIF(INDIRECT(ADDRESS($J61,8)):OFFSET($H61,-1,0,1,1),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="15" t="str">
-        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N61" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7760,34 +7667,34 @@
       <c r="D62" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="14">
-        <v>0</v>
-      </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14">
-        <v>1</v>
-      </c>
-      <c r="H62" s="14">
-        <v>1</v>
-      </c>
-      <c r="J62" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="15" t="str">
+      <c r="E62" s="11">
+        <v>0</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11">
+        <v>1</v>
+      </c>
+      <c r="J62" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="12" t="str">
         <f ca="1">IF(RIGHT($B62,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J62,6)):OFFSET($F62,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L62" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L62" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>6.1.1</v>
       </c>
-      <c r="M62" s="15" t="str">
+      <c r="M62" s="12" t="str">
         <f ca="1">IF(RIGHT($B62,2)="集計",COUNTIF(INDIRECT(ADDRESS($J62,8)):OFFSET($H62,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N62" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N62" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7795,34 +7702,34 @@
       <c r="D63" t="s">
         <v>138</v>
       </c>
-      <c r="E63" s="14">
-        <v>0</v>
-      </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14">
-        <v>1</v>
-      </c>
-      <c r="H63" s="14">
-        <v>1</v>
-      </c>
-      <c r="J63" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="15" t="str">
+      <c r="E63" s="11">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11">
+        <v>1</v>
+      </c>
+      <c r="H63" s="11">
+        <v>1</v>
+      </c>
+      <c r="J63" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="12" t="str">
         <f ca="1">IF(RIGHT($B63,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J63,6)):OFFSET($F63,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L63" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L63" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>6.2.1</v>
       </c>
-      <c r="M63" s="15" t="str">
+      <c r="M63" s="12" t="str">
         <f ca="1">IF(RIGHT($B63,2)="集計",COUNTIF(INDIRECT(ADDRESS($J63,8)):OFFSET($H63,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N63" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N63" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7830,69 +7737,69 @@
       <c r="D64" t="s">
         <v>139</v>
       </c>
-      <c r="E64" s="14">
-        <v>0</v>
-      </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14">
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11">
         <v>2</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="11">
         <v>2</v>
       </c>
-      <c r="J64" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="15" t="str">
+      <c r="J64" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="12" t="str">
         <f ca="1">IF(RIGHT($B64,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J64,6)):OFFSET($F64,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L64" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L64" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>6.3.1</v>
       </c>
-      <c r="M64" s="15" t="str">
+      <c r="M64" s="12" t="str">
         <f ca="1">IF(RIGHT($B64,2)="集計",COUNTIF(INDIRECT(ADDRESS($J64,8)):OFFSET($H64,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N64" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N64" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E65" s="14">
-        <v>0</v>
-      </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14">
+        <v>375</v>
+      </c>
+      <c r="E65" s="11">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11">
         <v>4</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="11">
         <v>4</v>
       </c>
-      <c r="J65" s="15">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="K65" s="15">
+      <c r="J65" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="12" t="str">
         <f ca="1">IF(RIGHT($B65,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J65,6)):OFFSET($F65,-1,0,1,1)),"")</f>
-        <v>3</v>
-      </c>
-      <c r="L65" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="15">
+        <v/>
+      </c>
+      <c r="L65" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="12" t="str">
         <f ca="1">IF(RIGHT($B65,2)="集計",COUNTIF(INDIRECT(ADDRESS($J65,8)):OFFSET($H65,-1,0,1,1),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N65" s="15" t="str">
-        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N65" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7906,69 +7813,69 @@
       <c r="D66" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="14">
-        <v>0</v>
-      </c>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14">
+      <c r="E66" s="11">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11">
         <v>5</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="11">
         <v>5</v>
       </c>
-      <c r="J66" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="15" t="str">
+      <c r="J66" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="12" t="str">
         <f ca="1">IF(RIGHT($B66,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J66,6)):OFFSET($F66,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L66" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L66" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>7.1.1</v>
       </c>
-      <c r="M66" s="15" t="str">
+      <c r="M66" s="12" t="str">
         <f ca="1">IF(RIGHT($B66,2)="集計",COUNTIF(INDIRECT(ADDRESS($J66,8)):OFFSET($H66,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N66" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N66" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="14">
-        <v>0</v>
-      </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14">
+        <v>376</v>
+      </c>
+      <c r="E67" s="11">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11">
         <v>5</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="11">
         <v>5</v>
       </c>
-      <c r="J67" s="15">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="K67" s="15">
+      <c r="J67" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="12" t="str">
         <f ca="1">IF(RIGHT($B67,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J67,6)):OFFSET($F67,-1,0,1,1)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="L67" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="15">
+        <v/>
+      </c>
+      <c r="L67" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="12" t="str">
         <f ca="1">IF(RIGHT($B67,2)="集計",COUNTIF(INDIRECT(ADDRESS($J67,8)):OFFSET($H67,-1,0,1,1),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N67" s="15" t="str">
-        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N67" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7982,69 +7889,69 @@
       <c r="D68" t="s">
         <v>141</v>
       </c>
-      <c r="E68" s="14">
-        <v>0</v>
-      </c>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14">
-        <v>1</v>
-      </c>
-      <c r="H68" s="14">
-        <v>1</v>
-      </c>
-      <c r="J68" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="15" t="str">
+      <c r="E68" s="11">
+        <v>0</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11">
+        <v>1</v>
+      </c>
+      <c r="H68" s="11">
+        <v>1</v>
+      </c>
+      <c r="J68" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="12" t="str">
         <f ca="1">IF(RIGHT($B68,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J68,6)):OFFSET($F68,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L68" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="L68" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>8.3.0</v>
       </c>
-      <c r="M68" s="15" t="str">
+      <c r="M68" s="12" t="str">
         <f ca="1">IF(RIGHT($B68,2)="集計",COUNTIF(INDIRECT(ADDRESS($J68,8)):OFFSET($H68,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N68" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N68" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="2:14">
       <c r="B69" t="s">
-        <v>109</v>
-      </c>
-      <c r="E69" s="14">
-        <v>0</v>
-      </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14">
-        <v>1</v>
-      </c>
-      <c r="H69" s="14">
-        <v>1</v>
-      </c>
-      <c r="J69" s="15">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="K69" s="15">
+        <v>377</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11">
+        <v>1</v>
+      </c>
+      <c r="H69" s="11">
+        <v>1</v>
+      </c>
+      <c r="J69" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="12" t="str">
         <f ca="1">IF(RIGHT($B69,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J69,6)):OFFSET($F69,-1,0,1,1)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="L69" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="15">
+        <v/>
+      </c>
+      <c r="L69" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="12" t="str">
         <f ca="1">IF(RIGHT($B69,2)="集計",COUNTIF(INDIRECT(ADDRESS($J69,8)):OFFSET($H69,-1,0,1,1),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N69" s="15" t="str">
-        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N69" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8052,34 +7959,34 @@
       <c r="B70" t="s">
         <v>142</v>
       </c>
-      <c r="E70" s="14">
-        <v>0</v>
-      </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14">
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11">
         <v>35</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="11">
         <v>35</v>
       </c>
-      <c r="J70" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="15" t="str">
+      <c r="J70" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="12" t="str">
         <f ca="1">IF(RIGHT($B70,2)="集計",COUNTBLANK(INDIRECT(ADDRESS($J70,6)):OFFSET($F70,-1,0,1,1)),"")</f>
         <v/>
       </c>
-      <c r="L70" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="15" t="str">
+      <c r="L70" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="12" t="str">
         <f ca="1">IF(RIGHT($B70,2)="集計",COUNTIF(INDIRECT(ADDRESS($J70,8)):OFFSET($H70,-1,0,1,1),0),"")</f>
         <v/>
       </c>
-      <c r="N70" s="15" t="str">
-        <f t="shared" si="3"/>
+      <c r="N70" s="12" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8097,7 +8004,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
@@ -8107,19 +8014,24 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="15" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11">
+  <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="87" zoomScaleNormal="87" zoomScaleSheetLayoutView="77" zoomScalePageLayoutView="51" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="87" zoomScaleNormal="87" zoomScaleSheetLayoutView="77" zoomScalePageLayoutView="87" workbookViewId="0">
       <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
@@ -8127,2852 +8039,2835 @@
       <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.1640625" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="16" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="16" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="4.25" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="22.625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="36.625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="23.625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="40.625" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="16" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="21.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="16" customWidth="1"/>
-    <col min="19" max="19" width="7.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.625" style="16" customWidth="1"/>
-    <col min="22" max="22" width="7" style="16" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.25" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.625" style="16" customWidth="1"/>
-    <col min="25" max="25" width="11.875" style="16" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="7.25" style="16" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.625" style="16" customWidth="1"/>
-    <col min="28" max="28" width="6.75" style="16" customWidth="1"/>
-    <col min="29" max="16384" width="12.125" style="16"/>
+    <col min="1" max="1" width="3.5" style="13" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="13" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="4.1640625" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="40.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" style="13" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="7" style="13" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" style="13" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="11.83203125" style="13" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="7.1640625" style="13" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" style="13" customWidth="1"/>
+    <col min="28" max="28" width="6.6640625" style="13" customWidth="1"/>
+    <col min="29" max="16384" width="12.1640625" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:27">
-      <c r="I2" s="19" t="str">
+      <c r="I2" s="16" t="str">
         <f>Report!B7</f>
         <v>NewModel</v>
       </c>
-      <c r="J2" s="20" t="str">
+      <c r="J2" s="17" t="str">
         <f>Report!C7</f>
         <v>サンプル</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="3:27">
-      <c r="I3" s="19" t="str">
+      <c r="I3" s="16" t="str">
         <f>Report!B11</f>
         <v>日付</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <f>Report!C11</f>
         <v>42209</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="AA3" s="16">
         <f>SUBTOTAL(9,AA$6:AA$40)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="V5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" s="22" t="s">
+      <c r="V5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="3:27" ht="27">
-      <c r="C6" s="25" t="s">
+    <row r="6" spans="3:27" ht="29">
+      <c r="C6" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="25">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25">
-        <v>1</v>
-      </c>
-      <c r="G6" s="25">
-        <v>1</v>
-      </c>
-      <c r="H6" s="25" t="s">
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="28" t="str">
+      <c r="N6" s="25" t="str">
         <f>IF(LEN(評価指針!$E6)&gt;40,LEFT(評価指針!$E6,40)&amp;"・・・",評価指針!$E6)</f>
         <v>削減率10%</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="22">
         <v>9</v>
       </c>
-      <c r="P6" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O6,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O6,配点表,2,FALSE))</f>
+      <c r="P6" s="22" t="str">
+        <f t="shared" ref="P6:P40" si="0">IF(ISERROR(VLOOKUP(O6,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O6,配点表,2,FALSE))</f>
         <v>削減率10%</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="28">
         <f>IF(AND(ASC($V6)="%",$R6&gt;= 90),配点区分!$F$3,IF(ISBLANK($R6)=TRUE,0,IF($X6&gt;=VLOOKUP($P6,配点表1,5,FALSE),配点区分!$F$3,IF($X6&gt;=VLOOKUP($P6,配点表1,6,FALSE),配点区分!$G$3,IF($X6&gt;=VLOOKUP($P6,配点表1,7,FALSE),配点区分!$H$3,IF($X6&gt;=VLOOKUP($P6,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U6" s="29"/>
-      <c r="V6" s="25">
+      <c r="U6" s="26"/>
+      <c r="V6" s="22">
         <v>7</v>
       </c>
       <c r="W6" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V6,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V6,単位分類名ID,0),3))</f>
+        <f t="shared" ref="W6:W40" si="1">IF(ISERROR(INDEX(単位分類名,MATCH($V6,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V6,単位分類名ID,0),3))</f>
         <v>電力量</v>
       </c>
-      <c r="X6" s="32" t="b">
+      <c r="X6" s="29" t="b">
         <f>IF($Q6="%",$S6-$R6,IF($P6="","",IF(RIGHT($P6,1)="%",IF(LEFT($P6,2)="削減",IF($R6&gt;0,($S6-$R6)*100/$R6),IF(LEFT($P6,2)="向上",IF($R6&gt;0,($R6-$S6)*100/$S6,))),$R6)))</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="25" t="str">
+      <c r="Y6" s="22" t="str">
         <f>$D6&amp;"."&amp;$E6&amp;"."&amp;$F6</f>
         <v>1.1.1</v>
       </c>
-      <c r="Z6" s="25">
+      <c r="Z6" s="22">
         <f>IF(OR($H6="選択",$H6="必須"),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="31">
+      <c r="AA6" s="28">
         <f>IF(AND($H6="必須",$R6=""),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:27" ht="27">
-      <c r="C7" s="25" t="s">
+    <row r="7" spans="3:27" ht="29">
+      <c r="C7" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="25">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22">
         <v>3</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="N7" s="28" t="str">
+      <c r="N7" s="25" t="str">
         <f>IF(LEN(評価指針!$E7)&gt;40,LEFT(評価指針!$E7,40)&amp;"・・・",評価指針!$E7)</f>
         <v>削減率10%</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="22">
         <v>9</v>
       </c>
-      <c r="P7" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O7,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O7,配点表,2,FALSE))</f>
+      <c r="P7" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>削減率10%</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31">
+      <c r="Q7" s="26"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28">
         <f>IF(AND(ASC($V7)="%",$R7&gt;= 90),配点区分!$F$3,IF(ISBLANK($R7)=TRUE,0,IF($X7&gt;=VLOOKUP($P7,配点表1,5,FALSE),配点区分!$F$3,IF($X7&gt;=VLOOKUP($P7,配点表1,6,FALSE),配点区分!$G$3,IF($X7&gt;=VLOOKUP($P7,配点表1,7,FALSE),配点区分!$H$3,IF($X7&gt;=VLOOKUP($P7,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U7" s="29"/>
-      <c r="V7" s="25">
+      <c r="U7" s="26"/>
+      <c r="V7" s="22">
         <v>7</v>
       </c>
       <c r="W7" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V7,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V7,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>電力量</v>
       </c>
-      <c r="X7" s="32" t="b">
-        <f t="shared" ref="X7:X40" si="0">IF($Q7="%",$S7-$R7,IF($P7="","",IF(RIGHT($P7,1)="%",IF(LEFT($P7,2)="削減",IF($R7&gt;0,($S7-$R7)*100/$R7),IF(LEFT($P7,2)="向上",IF($R7&gt;0,($R7-$S7)*100/$S7,))),$R7)))</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="25" t="str">
-        <f t="shared" ref="Y7:Y40" si="1">$D7&amp;"."&amp;$E7&amp;"."&amp;$F7</f>
+      <c r="X7" s="29" t="b">
+        <f t="shared" ref="X7:X40" si="2">IF($Q7="%",$S7-$R7,IF($P7="","",IF(RIGHT($P7,1)="%",IF(LEFT($P7,2)="削減",IF($R7&gt;0,($S7-$R7)*100/$R7),IF(LEFT($P7,2)="向上",IF($R7&gt;0,($R7-$S7)*100/$S7,))),$R7)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="22" t="str">
+        <f t="shared" ref="Y7:Y40" si="3">$D7&amp;"."&amp;$E7&amp;"."&amp;$F7</f>
         <v>1.1.1</v>
       </c>
-      <c r="Z7" s="25">
-        <f t="shared" ref="Z7:Z40" si="2">IF(OR($H7="選択",$H7="必須"),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AA7" s="31">
-        <f t="shared" ref="AA7:AA40" si="3">IF(AND($H7="必須",$R7=""),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:27" ht="27">
-      <c r="C8" s="25" t="s">
+      <c r="Z7" s="22">
+        <f t="shared" ref="Z7:Z40" si="4">IF(OR($H7="選択",$H7="必須"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA7" s="28">
+        <f t="shared" ref="AA7:AA40" si="5">IF(AND($H7="必須",$R7=""),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" ht="29">
+      <c r="C8" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="25">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25">
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22">
         <v>2</v>
       </c>
-      <c r="G8" s="25">
-        <v>1</v>
-      </c>
-      <c r="H8" s="33" t="s">
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="N8" s="28" t="str">
+      <c r="N8" s="25" t="str">
         <f>IF(LEN(評価指針!$E8)&gt;40,LEFT(評価指針!$E8,40)&amp;"・・・",評価指針!$E8)</f>
         <v>節湯区分</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="22">
         <v>15</v>
       </c>
-      <c r="P8" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O8,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O8,配点表,2,FALSE))</f>
+      <c r="P8" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>節湯区分</v>
       </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="31">
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="28">
         <f>IF(ISBLANK($R8)=TRUE,0,IF($X8=VLOOKUP($P8,配点表1,5,FALSE),配点区分!$F$3,IF($X8=VLOOKUP($P8,配点表1,6,FALSE),配点区分!$G$3,IF($X8=VLOOKUP($P8,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
         <v>0</v>
       </c>
-      <c r="U8" s="29"/>
-      <c r="V8" s="25">
+      <c r="U8" s="26"/>
+      <c r="V8" s="22">
         <v>1</v>
       </c>
       <c r="W8" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V8,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V8,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>定性値</v>
       </c>
-      <c r="X8" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X8" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>1.1.2</v>
       </c>
-      <c r="Z8" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA8" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:27" ht="40.5">
-      <c r="C9" s="25" t="s">
+      <c r="Z8" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" ht="41">
+      <c r="C9" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="25">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25">
-        <v>1</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="D9" s="22">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
         <v>3</v>
       </c>
-      <c r="G9" s="25">
-        <v>1</v>
-      </c>
-      <c r="H9" s="33" t="s">
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="N9" s="28" t="str">
+      <c r="N9" s="25" t="str">
         <f>IF(LEN(評価指針!$E9)&gt;40,LEFT(評価指針!$E9,40)&amp;"・・・",評価指針!$E9)</f>
         <v>・製品評価時に、エネルギー消費削減量を計るときは、母数に、生産台数、売上額などを・・・</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="22">
         <v>22</v>
       </c>
-      <c r="P9" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O9,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O9,配点表,2,FALSE))</f>
+      <c r="P9" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>削減率 5%</v>
       </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31">
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="28">
         <f>IF(AND(ASC($V9)="%",$R9&gt;= 90),配点区分!$F$3,IF(ISBLANK($R9)=TRUE,0,IF($X9&gt;=VLOOKUP($P9,配点表1,5,FALSE),配点区分!$F$3,IF($X9&gt;=VLOOKUP($P9,配点表1,6,FALSE),配点区分!$G$3,IF($X9&gt;=VLOOKUP($P9,配点表1,7,FALSE),配点区分!$H$3,IF($X9&gt;=VLOOKUP($P9,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U9" s="29"/>
-      <c r="V9" s="25">
+      <c r="U9" s="26"/>
+      <c r="V9" s="22">
         <v>7</v>
       </c>
       <c r="W9" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V9,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V9,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>電力量</v>
       </c>
-      <c r="X9" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X9" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>1.1.3</v>
       </c>
-      <c r="Z9" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA9" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:27" ht="40.5">
-      <c r="C10" s="25" t="s">
+      <c r="Z9" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA9" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" ht="41">
+      <c r="C10" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="25">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25">
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22">
         <v>3</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="22">
         <v>2</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="N10" s="28" t="str">
+      <c r="N10" s="25" t="str">
         <f>IF(LEN(評価指針!$E10)&gt;40,LEFT(評価指針!$E10,40)&amp;"・・・",評価指針!$E10)</f>
         <v>・製品評価時に、エネルギー消費削減量を計るときは、母数に、生産台数、売上額などを・・・</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="22">
         <v>9</v>
       </c>
-      <c r="P10" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O10,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O10,配点表,2,FALSE))</f>
+      <c r="P10" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>削減率10%</v>
       </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="31">
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="28">
         <f>IF(AND(ASC($V10)="%",$R10&gt;= 90),配点区分!$F$3,IF(ISBLANK($R10)=TRUE,0,IF($X10&gt;=VLOOKUP($P10,配点表1,5,FALSE),配点区分!$F$3,IF($X10&gt;=VLOOKUP($P10,配点表1,6,FALSE),配点区分!$G$3,IF($X10&gt;=VLOOKUP($P10,配点表1,7,FALSE),配点区分!$H$3,IF($X10&gt;=VLOOKUP($P10,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U10" s="29"/>
-      <c r="V10" s="25">
+      <c r="U10" s="26"/>
+      <c r="V10" s="22">
         <v>7</v>
       </c>
       <c r="W10" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V10,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V10,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>電力量</v>
       </c>
-      <c r="X10" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X10" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>1.1.3</v>
       </c>
-      <c r="Z10" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA10" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:27" ht="27">
-      <c r="C11" s="25" t="s">
+      <c r="Z10" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA10" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" ht="29">
+      <c r="C11" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="22">
         <v>2</v>
       </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="25">
-        <v>1</v>
-      </c>
-      <c r="G11" s="25">
-        <v>1</v>
-      </c>
-      <c r="H11" s="33" t="s">
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="28" t="str">
+      <c r="N11" s="25" t="str">
         <f>IF(LEN(評価指針!$E11)&gt;40,LEFT(評価指針!$E11,40)&amp;"・・・",評価指針!$E11)</f>
         <v>・これら項目の評価では、全構成部品の個別素材重量、完成品重量、寸法、体積が把握管・・・</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="22">
         <v>9</v>
       </c>
-      <c r="P11" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O11,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O11,配点表,2,FALSE))</f>
+      <c r="P11" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>削減率10%</v>
       </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="31">
+      <c r="Q11" s="26"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28">
         <f>IF(AND(ASC($V11)="%",$R11&gt;= 90),配点区分!$F$3,IF(ISBLANK($R11)=TRUE,0,IF($X11&gt;=VLOOKUP($P11,配点表1,5,FALSE),配点区分!$F$3,IF($X11&gt;=VLOOKUP($P11,配点表1,6,FALSE),配点区分!$G$3,IF($X11&gt;=VLOOKUP($P11,配点表1,7,FALSE),配点区分!$H$3,IF($X11&gt;=VLOOKUP($P11,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U11" s="29"/>
-      <c r="V11" s="25">
+      <c r="U11" s="26"/>
+      <c r="V11" s="22">
         <v>13</v>
       </c>
       <c r="W11" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V11,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V11,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>重量</v>
       </c>
-      <c r="X11" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X11" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>2.1.1</v>
       </c>
-      <c r="Z11" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA11" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:27" ht="27">
-      <c r="C12" s="25" t="s">
+      <c r="Z11" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" ht="29">
+      <c r="C12" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>2</v>
       </c>
-      <c r="E12" s="25">
-        <v>1</v>
-      </c>
-      <c r="F12" s="25">
-        <v>1</v>
-      </c>
-      <c r="G12" s="25">
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22">
         <v>2</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="N12" s="28" t="str">
+      <c r="N12" s="25" t="str">
         <f>IF(LEN(評価指針!$E12)&gt;40,LEFT(評価指針!$E12,40)&amp;"・・・",評価指針!$E12)</f>
         <v>・これら項目の評価では、全構成部品の個別素材重量、完成品重量、寸法、体積が把握管・・・</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="22">
         <v>9</v>
       </c>
-      <c r="P12" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O12,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O12,配点表,2,FALSE))</f>
+      <c r="P12" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>削減率10%</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31">
+      <c r="Q12" s="26"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="28">
         <f>IF(AND(ASC($V12)="%",$R12&gt;= 90),配点区分!$F$3,IF(ISBLANK($R12)=TRUE,0,IF($X12&gt;=VLOOKUP($P12,配点表1,5,FALSE),配点区分!$F$3,IF($X12&gt;=VLOOKUP($P12,配点表1,6,FALSE),配点区分!$G$3,IF($X12&gt;=VLOOKUP($P12,配点表1,7,FALSE),配点区分!$H$3,IF($X12&gt;=VLOOKUP($P12,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="25">
+      <c r="U12" s="26"/>
+      <c r="V12" s="22">
         <v>2</v>
       </c>
       <c r="W12" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V12,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V12,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>容積</v>
       </c>
-      <c r="X12" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X12" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>2.1.1</v>
       </c>
-      <c r="Z12" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA12" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:27" ht="27">
-      <c r="C13" s="25" t="s">
+      <c r="Z12" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" ht="29">
+      <c r="C13" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>2</v>
       </c>
-      <c r="E13" s="25">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25">
-        <v>1</v>
-      </c>
-      <c r="G13" s="25">
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22">
         <v>3</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="N13" s="28" t="str">
+      <c r="N13" s="25" t="str">
         <f>IF(LEN(評価指針!$E13)&gt;40,LEFT(評価指針!$E13,40)&amp;"・・・",評価指針!$E13)</f>
         <v>製品全体の重量が変わらない場合も、設計改善（歩留まり、不良率改善等）による材料の・・・</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="22">
         <v>9</v>
       </c>
-      <c r="P13" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O13,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O13,配点表,2,FALSE))</f>
+      <c r="P13" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>削減率10%</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="31">
+      <c r="Q13" s="26"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="28">
         <f>IF(AND(ASC($V13)="%",$R13&gt;= 90),配点区分!$F$3,IF(ISBLANK($R13)=TRUE,0,IF($X13&gt;=VLOOKUP($P13,配点表1,5,FALSE),配点区分!$F$3,IF($X13&gt;=VLOOKUP($P13,配点表1,6,FALSE),配点区分!$G$3,IF($X13&gt;=VLOOKUP($P13,配点表1,7,FALSE),配点区分!$H$3,IF($X13&gt;=VLOOKUP($P13,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U13" s="29"/>
-      <c r="V13" s="25">
+      <c r="U13" s="26"/>
+      <c r="V13" s="22">
         <v>13</v>
       </c>
       <c r="W13" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V13,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V13,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>重量</v>
       </c>
-      <c r="X13" s="32" t="b">
+      <c r="X13" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2.1.1</v>
+      </c>
+      <c r="Z13" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" ht="53">
+      <c r="C14" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="22">
+        <v>2</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2</v>
+      </c>
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="N14" s="25" t="str">
+        <f>IF(LEN(評価指針!$E14)&gt;40,LEFT(評価指針!$E14,40)&amp;"・・・",評価指針!$E14)</f>
+        <v>_x000D__x000D_【標準部品とは】_x000D__x000D_本ガイドラインでは、一般規格部品、複数の製品で使用可能な・・・</v>
+      </c>
+      <c r="O14" s="22">
+        <v>9</v>
+      </c>
+      <c r="P14" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="25" t="str">
+        <v>削減率10%</v>
+      </c>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="28">
+        <f>IF(AND(ASC($V14)="%",$R14&gt;= 90),配点区分!$F$3,IF(ISBLANK($R14)=TRUE,0,IF($X14&gt;=VLOOKUP($P14,配点表1,5,FALSE),配点区分!$F$3,IF($X14&gt;=VLOOKUP($P14,配点表1,6,FALSE),配点区分!$G$3,IF($X14&gt;=VLOOKUP($P14,配点表1,7,FALSE),配点区分!$H$3,IF($X14&gt;=VLOOKUP($P14,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="26"/>
+      <c r="V14" s="22">
+        <v>8</v>
+      </c>
+      <c r="W14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.1.1</v>
-      </c>
-      <c r="Z13" s="25">
+        <v>数量</v>
+      </c>
+      <c r="X14" s="29" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:27" ht="54">
-      <c r="C14" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="25">
+        <v>2.1.2</v>
+      </c>
+      <c r="Z14" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:27" ht="41">
+      <c r="C15" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="22">
         <v>2</v>
       </c>
-      <c r="E14" s="25">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22">
         <v>2</v>
       </c>
-      <c r="G14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="33" t="s">
+      <c r="G15" s="22">
+        <v>2</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I15" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J15" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K15" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="N14" s="28" t="str">
-        <f>IF(LEN(評価指針!$E14)&gt;40,LEFT(評価指針!$E14,40)&amp;"・・・",評価指針!$E14)</f>
-        <v>_x000D_
-【標準部品とは】_x000D_
-本ガイドラインでは、一般規格部品、複数の製品で使用可能な・・・</v>
-      </c>
-      <c r="O14" s="25">
+      <c r="L15" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="N15" s="25" t="str">
+        <f>IF(LEN(評価指針!$E15)&gt;40,LEFT(評価指針!$E15,40)&amp;"・・・",評価指針!$E15)</f>
+        <v>_x000D_【標準部品とは】_x000D_本ガイドラインでは、一般規格部品、複数の製品で使用可能な部品・・・</v>
+      </c>
+      <c r="O15" s="22">
+        <v>16</v>
+      </c>
+      <c r="P15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>向上率10%</v>
+      </c>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="28">
+        <f>IF(AND(ASC($V15)="%",$R15&gt;= 90),配点区分!$F$3,IF(ISBLANK($R15)=TRUE,0,IF($X15&gt;=VLOOKUP($P15,配点表1,5,FALSE),配点区分!$F$3,IF($X15&gt;=VLOOKUP($P15,配点表1,6,FALSE),配点区分!$G$3,IF($X15&gt;=VLOOKUP($P15,配点表1,7,FALSE),配点区分!$H$3,IF($X15&gt;=VLOOKUP($P15,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="26"/>
+      <c r="V15" s="22">
         <v>9</v>
       </c>
-      <c r="P14" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O14,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O14,配点表,2,FALSE))</f>
-        <v>削減率10%</v>
-      </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="31">
-        <f>IF(AND(ASC($V14)="%",$R14&gt;= 90),配点区分!$F$3,IF(ISBLANK($R14)=TRUE,0,IF($X14&gt;=VLOOKUP($P14,配点表1,5,FALSE),配点区分!$F$3,IF($X14&gt;=VLOOKUP($P14,配点表1,6,FALSE),配点区分!$G$3,IF($X14&gt;=VLOOKUP($P14,配点表1,7,FALSE),配点区分!$H$3,IF($X14&gt;=VLOOKUP($P14,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="29"/>
-      <c r="V14" s="25">
-        <v>8</v>
-      </c>
-      <c r="W14" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V14,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V14,単位分類名ID,0),3))</f>
-        <v>数量</v>
-      </c>
-      <c r="X14" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="25" t="str">
+      <c r="W15" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>割合</v>
+      </c>
+      <c r="X15" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>2.1.2</v>
       </c>
-      <c r="Z14" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA14" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:27" ht="40.5">
-      <c r="C15" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="Z15" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27" ht="41">
+      <c r="C16" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="22">
         <v>2</v>
       </c>
-      <c r="E15" s="25">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25">
-        <v>2</v>
-      </c>
-      <c r="G15" s="25">
-        <v>2</v>
-      </c>
-      <c r="H15" s="33" t="s">
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22">
+        <v>3</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1</v>
+      </c>
+      <c r="H16" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I16" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J16" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="K15" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="N15" s="28" t="str">
-        <f>IF(LEN(評価指針!$E15)&gt;40,LEFT(評価指針!$E15,40)&amp;"・・・",評価指針!$E15)</f>
-        <v>_x000D_【標準部品とは】
-本ガイドラインでは、一般規格部品、複数の製品で使用可能な部品・・・</v>
-      </c>
-      <c r="O15" s="25">
-        <v>16</v>
-      </c>
-      <c r="P15" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O15,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O15,配点表,2,FALSE))</f>
-        <v>向上率10%</v>
-      </c>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="31">
-        <f>IF(AND(ASC($V15)="%",$R15&gt;= 90),配点区分!$F$3,IF(ISBLANK($R15)=TRUE,0,IF($X15&gt;=VLOOKUP($P15,配点表1,5,FALSE),配点区分!$F$3,IF($X15&gt;=VLOOKUP($P15,配点表1,6,FALSE),配点区分!$G$3,IF($X15&gt;=VLOOKUP($P15,配点表1,7,FALSE),配点区分!$H$3,IF($X15&gt;=VLOOKUP($P15,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="29"/>
-      <c r="V15" s="25">
-        <v>9</v>
-      </c>
-      <c r="W15" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V15,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V15,単位分類名ID,0),3))</f>
-        <v>割合</v>
-      </c>
-      <c r="X15" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>2.1.2</v>
-      </c>
-      <c r="Z15" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA15" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:27" ht="40.5">
-      <c r="C16" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="25">
-        <v>2</v>
-      </c>
-      <c r="E16" s="25">
-        <v>1</v>
-      </c>
-      <c r="F16" s="25">
-        <v>3</v>
-      </c>
-      <c r="G16" s="25">
-        <v>1</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="N16" s="28" t="str">
+      <c r="N16" s="25" t="str">
         <f>IF(LEN(評価指針!$E16)&gt;40,LEFT(評価指針!$E16,40)&amp;"・・・",評価指針!$E16)</f>
         <v>製造時の部品梱包材及び製品の使い捨て包装材や梱包材を対象とし、重量及び／又は体積・・・</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="22">
         <v>9</v>
       </c>
-      <c r="P16" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O16,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O16,配点表,2,FALSE))</f>
+      <c r="P16" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>削減率10%</v>
       </c>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="31">
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="28">
         <f>IF(AND(ASC($V16)="%",$R16&gt;= 90),配点区分!$F$3,IF(ISBLANK($R16)=TRUE,0,IF($X16&gt;=VLOOKUP($P16,配点表1,5,FALSE),配点区分!$F$3,IF($X16&gt;=VLOOKUP($P16,配点表1,6,FALSE),配点区分!$G$3,IF($X16&gt;=VLOOKUP($P16,配点表1,7,FALSE),配点区分!$H$3,IF($X16&gt;=VLOOKUP($P16,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U16" s="29"/>
-      <c r="V16" s="25">
+      <c r="U16" s="26"/>
+      <c r="V16" s="22">
         <v>13</v>
       </c>
       <c r="W16" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V16,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V16,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>重量</v>
       </c>
-      <c r="X16" s="32" t="b">
+      <c r="X16" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2.1.3</v>
+      </c>
+      <c r="Z16" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" ht="29">
+      <c r="C17" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="22">
+        <v>2</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22">
+        <v>5</v>
+      </c>
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="N17" s="25" t="str">
+        <f>IF(LEN(評価指針!$E17)&gt;40,LEFT(評価指針!$E17,40)&amp;"・・・",評価指針!$E17)</f>
+        <v>【チェックシートへの記入】_x000D_節水機能に関係しない製品は、項目の「必須／選択」欄で・・・</v>
+      </c>
+      <c r="O17" s="22">
+        <v>13</v>
+      </c>
+      <c r="P17" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="25" t="str">
+        <v>有無</v>
+      </c>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="28">
+        <f>IF(ISBLANK($R17)=TRUE,0,IF($X17=VLOOKUP($P17,配点表1,5,FALSE),配点区分!$F$3,IF($X17=VLOOKUP($P17,配点表1,6,FALSE),配点区分!$G$3,IF($X17=VLOOKUP($P17,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="26"/>
+      <c r="V17" s="22">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.1.3</v>
-      </c>
-      <c r="Z16" s="25">
+        <v>定性値</v>
+      </c>
+      <c r="X17" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA16" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:27" ht="40.5">
-      <c r="C17" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="25">
+        <v>2.1.5</v>
+      </c>
+      <c r="Z17" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" ht="29">
+      <c r="C18" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="22">
         <v>2</v>
       </c>
-      <c r="E17" s="25">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25">
+      <c r="E18" s="22">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22">
         <v>5</v>
       </c>
-      <c r="G17" s="25">
-        <v>1</v>
-      </c>
-      <c r="H17" s="33" t="s">
+      <c r="G18" s="22">
+        <v>2</v>
+      </c>
+      <c r="H18" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I18" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J18" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K18" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="L17" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="N17" s="28" t="str">
-        <f>IF(LEN(評価指針!$E17)&gt;40,LEFT(評価指針!$E17,40)&amp;"・・・",評価指針!$E17)</f>
-        <v>【チェックシートへの記入】
-節水機能に関係しない製品は、項目の「必須／選択」欄で・・・</v>
-      </c>
-      <c r="O17" s="25">
+      <c r="L18" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="N18" s="25" t="str">
+        <f>IF(LEN(評価指針!$E18)&gt;40,LEFT(評価指針!$E18,40)&amp;"・・・",評価指針!$E18)</f>
+        <v>・この項目は、エネルギー消費ではなく資源消費の観点で評価する。_x000D_・漏れの測定方法・・・</v>
+      </c>
+      <c r="O18" s="22">
+        <v>9</v>
+      </c>
+      <c r="P18" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>削減率10%</v>
+      </c>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="28">
+        <f>IF(AND(ASC($V18)="%",$R18&gt;= 90),配点区分!$F$3,IF(ISBLANK($R18)=TRUE,0,IF($X18&gt;=VLOOKUP($P18,配点表1,5,FALSE),配点区分!$F$3,IF($X18&gt;=VLOOKUP($P18,配点表1,6,FALSE),配点区分!$G$3,IF($X18&gt;=VLOOKUP($P18,配点表1,7,FALSE),配点区分!$H$3,IF($X18&gt;=VLOOKUP($P18,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="26"/>
+      <c r="V18" s="22">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>弁座漏れ量</v>
+      </c>
+      <c r="X18" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2.1.5</v>
+      </c>
+      <c r="Z18" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" ht="53">
+      <c r="C19" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="22">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22">
+        <v>5</v>
+      </c>
+      <c r="G19" s="22">
+        <v>3</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="N19" s="25" t="str">
+        <f>IF(LEN(評価指針!$E19)&gt;40,LEFT(評価指針!$E19,40)&amp;"・・・",評価指針!$E19)</f>
+        <v>【チェックシートへの記入】_x000D_漏れ量の具体的数値を入力する。または、接合部（駆動部・・・</v>
+      </c>
+      <c r="O19" s="22">
+        <v>9</v>
+      </c>
+      <c r="P19" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>削減率10%</v>
+      </c>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="28">
+        <f>IF(AND(ASC($V19)="%",$R19&gt;= 90),配点区分!$F$3,IF(ISBLANK($R19)=TRUE,0,IF($X19&gt;=VLOOKUP($P19,配点表1,5,FALSE),配点区分!$F$3,IF($X19&gt;=VLOOKUP($P19,配点表1,6,FALSE),配点区分!$G$3,IF($X19&gt;=VLOOKUP($P19,配点表1,7,FALSE),配点区分!$H$3,IF($X19&gt;=VLOOKUP($P19,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="26"/>
+      <c r="V19" s="22">
+        <v>1</v>
+      </c>
+      <c r="W19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>定性値</v>
+      </c>
+      <c r="X19" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2.1.5</v>
+      </c>
+      <c r="Z19" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" ht="29">
+      <c r="C20" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="22">
+        <v>2</v>
+      </c>
+      <c r="E20" s="22">
+        <v>2</v>
+      </c>
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22">
+        <v>1</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="N20" s="25" t="str">
+        <f>IF(LEN(評価指針!$E20)&gt;40,LEFT(評価指針!$E20,40)&amp;"・・・",評価指針!$E20)</f>
+        <v>以下の点を考慮に入れて寿命又は耐久性を計る評価方法を明確に定め、評価を行う。_x000D_①・・・</v>
+      </c>
+      <c r="O20" s="22">
+        <v>16</v>
+      </c>
+      <c r="P20" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>向上率10%</v>
+      </c>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="28">
+        <f>IF(AND(ASC($V20)="%",$R20&gt;= 90),配点区分!$F$3,IF(ISBLANK($R20)=TRUE,0,IF($X20&gt;=VLOOKUP($P20,配点表1,5,FALSE),配点区分!$F$3,IF($X20&gt;=VLOOKUP($P20,配点表1,6,FALSE),配点区分!$G$3,IF($X20&gt;=VLOOKUP($P20,配点表1,7,FALSE),配点区分!$H$3,IF($X20&gt;=VLOOKUP($P20,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="26"/>
+      <c r="V20" s="22">
+        <v>10</v>
+      </c>
+      <c r="W20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>時間</v>
+      </c>
+      <c r="X20" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2.2.1</v>
+      </c>
+      <c r="Z20" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" ht="29">
+      <c r="C21" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="22">
+        <v>2</v>
+      </c>
+      <c r="E21" s="22">
+        <v>3</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22">
+        <v>1</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="N21" s="25" t="str">
+        <f>IF(LEN(評価指針!$E21)&gt;40,LEFT(評価指針!$E21,40)&amp;"・・・",評価指針!$E21)</f>
+        <v>・上記例を参考に、削減対象廃棄物とその削減目標値は事業者で決める。_x000D_・評価範囲は・・・</v>
+      </c>
+      <c r="O21" s="22">
+        <v>22</v>
+      </c>
+      <c r="P21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>削減率 5%</v>
+      </c>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="28">
+        <f>IF(AND(ASC($V21)="%",$R21&gt;= 90),配点区分!$F$3,IF(ISBLANK($R21)=TRUE,0,IF($X21&gt;=VLOOKUP($P21,配点表1,5,FALSE),配点区分!$F$3,IF($X21&gt;=VLOOKUP($P21,配点表1,6,FALSE),配点区分!$G$3,IF($X21&gt;=VLOOKUP($P21,配点表1,7,FALSE),配点区分!$H$3,IF($X21&gt;=VLOOKUP($P21,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="26"/>
+      <c r="V21" s="22">
         <v>13</v>
       </c>
-      <c r="P17" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O17,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O17,配点表,2,FALSE))</f>
-        <v>有無</v>
-      </c>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="31">
-        <f>IF(ISBLANK($R17)=TRUE,0,IF($X17=VLOOKUP($P17,配点表1,5,FALSE),配点区分!$F$3,IF($X17=VLOOKUP($P17,配点表1,6,FALSE),配点区分!$G$3,IF($X17=VLOOKUP($P17,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="29"/>
-      <c r="V17" s="25">
-        <v>1</v>
-      </c>
-      <c r="W17" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V17,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V17,単位分類名ID,0),3))</f>
-        <v>定性値</v>
-      </c>
-      <c r="X17" s="32">
+      <c r="W21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>重量</v>
+      </c>
+      <c r="X21" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2.3.1</v>
+      </c>
+      <c r="Z21" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" ht="41">
+      <c r="C22" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="22">
+        <v>3</v>
+      </c>
+      <c r="F22" s="22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="N22" s="25" t="str">
+        <f>IF(LEN(評価指針!$E22)&gt;40,LEFT(評価指針!$E22,40)&amp;"・・・",評価指針!$E22)</f>
+        <v>・消費量は消耗品の耐用寿命、交換周期で置き換えて目標値設定してもよい。_x000D_・製品評・・・</v>
+      </c>
+      <c r="O22" s="22">
+        <v>9</v>
+      </c>
+      <c r="P22" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="25" t="str">
+        <v>削減率10%</v>
+      </c>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="28">
+        <f>IF(AND(ASC($V22)="%",$R22&gt;= 90),配点区分!$F$3,IF(ISBLANK($R22)=TRUE,0,IF($X22&gt;=VLOOKUP($P22,配点表1,5,FALSE),配点区分!$F$3,IF($X22&gt;=VLOOKUP($P22,配点表1,6,FALSE),配点区分!$G$3,IF($X22&gt;=VLOOKUP($P22,配点表1,7,FALSE),配点区分!$H$3,IF($X22&gt;=VLOOKUP($P22,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="26"/>
+      <c r="V22" s="22">
+        <v>13</v>
+      </c>
+      <c r="W22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.1.5</v>
-      </c>
-      <c r="Z17" s="25">
+        <v>重量</v>
+      </c>
+      <c r="X22" s="29" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA17" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" ht="40.5">
-      <c r="C18" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" s="25">
+        <v>2.3.2</v>
+      </c>
+      <c r="Z22" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA22" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" ht="41">
+      <c r="C23" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="22">
+        <v>3</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22">
+        <v>1</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="N23" s="25" t="str">
+        <f>IF(LEN(評価指針!$E23)&gt;40,LEFT(評価指針!$E23,40)&amp;"・・・",評価指針!$E23)</f>
+        <v>【交換可能部品とは】_x000D_ユーザー、メンテナンス担当者が、全体を交換せずにその部品の・・・</v>
+      </c>
+      <c r="O23" s="22">
+        <v>16</v>
+      </c>
+      <c r="P23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>向上率10%</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="28">
+        <f>IF(AND(ASC($V23)="%",$R23&gt;= 90),配点区分!$F$3,IF(ISBLANK($R23)=TRUE,0,IF($X23&gt;=VLOOKUP($P23,配点表1,5,FALSE),配点区分!$F$3,IF($X23&gt;=VLOOKUP($P23,配点表1,6,FALSE),配点区分!$G$3,IF($X23&gt;=VLOOKUP($P23,配点表1,7,FALSE),配点区分!$H$3,IF($X23&gt;=VLOOKUP($P23,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="26"/>
+      <c r="V23" s="22">
+        <v>8</v>
+      </c>
+      <c r="W23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>数量</v>
+      </c>
+      <c r="X23" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>3.1.1</v>
+      </c>
+      <c r="Z23" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA23" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" ht="41">
+      <c r="C24" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="22">
+        <v>3</v>
+      </c>
+      <c r="E24" s="22">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22">
         <v>2</v>
       </c>
-      <c r="E18" s="25">
-        <v>1</v>
-      </c>
-      <c r="F18" s="25">
-        <v>5</v>
-      </c>
-      <c r="G18" s="25">
-        <v>2</v>
-      </c>
-      <c r="H18" s="33" t="s">
+      <c r="G24" s="22">
+        <v>1</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I18" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="N18" s="28" t="str">
-        <f>IF(LEN(評価指針!$E18)&gt;40,LEFT(評価指針!$E18,40)&amp;"・・・",評価指針!$E18)</f>
-        <v>・この項目は、エネルギー消費ではなく資源消費の観点で評価する。
-・漏れの測定方法・・・</v>
-      </c>
-      <c r="O18" s="25">
-        <v>9</v>
-      </c>
-      <c r="P18" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O18,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O18,配点表,2,FALSE))</f>
-        <v>削減率10%</v>
-      </c>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="31">
-        <f>IF(AND(ASC($V18)="%",$R18&gt;= 90),配点区分!$F$3,IF(ISBLANK($R18)=TRUE,0,IF($X18&gt;=VLOOKUP($P18,配点表1,5,FALSE),配点区分!$F$3,IF($X18&gt;=VLOOKUP($P18,配点表1,6,FALSE),配点区分!$G$3,IF($X18&gt;=VLOOKUP($P18,配点表1,7,FALSE),配点区分!$H$3,IF($X18&gt;=VLOOKUP($P18,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="29"/>
-      <c r="V18" s="25">
-        <v>4</v>
-      </c>
-      <c r="W18" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V18,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V18,単位分類名ID,0),3))</f>
-        <v>弁座漏れ量</v>
-      </c>
-      <c r="X18" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>2.1.5</v>
-      </c>
-      <c r="Z18" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA18" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" ht="54">
-      <c r="C19" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="25">
-        <v>2</v>
-      </c>
-      <c r="E19" s="25">
-        <v>1</v>
-      </c>
-      <c r="F19" s="25">
-        <v>5</v>
-      </c>
-      <c r="G19" s="25">
-        <v>3</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="N19" s="28" t="str">
-        <f>IF(LEN(評価指針!$E19)&gt;40,LEFT(評価指針!$E19,40)&amp;"・・・",評価指針!$E19)</f>
-        <v>【チェックシートへの記入】
-漏れ量の具体的数値を入力する。または、接合部（駆動部・・・</v>
-      </c>
-      <c r="O19" s="25">
-        <v>9</v>
-      </c>
-      <c r="P19" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O19,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O19,配点表,2,FALSE))</f>
-        <v>削減率10%</v>
-      </c>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="31">
-        <f>IF(AND(ASC($V19)="%",$R19&gt;= 90),配点区分!$F$3,IF(ISBLANK($R19)=TRUE,0,IF($X19&gt;=VLOOKUP($P19,配点表1,5,FALSE),配点区分!$F$3,IF($X19&gt;=VLOOKUP($P19,配点表1,6,FALSE),配点区分!$G$3,IF($X19&gt;=VLOOKUP($P19,配点表1,7,FALSE),配点区分!$H$3,IF($X19&gt;=VLOOKUP($P19,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="29"/>
-      <c r="V19" s="25">
-        <v>1</v>
-      </c>
-      <c r="W19" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V19,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V19,単位分類名ID,0),3))</f>
-        <v>定性値</v>
-      </c>
-      <c r="X19" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>2.1.5</v>
-      </c>
-      <c r="Z19" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA19" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:27" ht="40.5">
-      <c r="C20" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="25">
-        <v>2</v>
-      </c>
-      <c r="E20" s="25">
-        <v>2</v>
-      </c>
-      <c r="F20" s="25">
-        <v>1</v>
-      </c>
-      <c r="G20" s="25">
-        <v>1</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="N20" s="28" t="str">
-        <f>IF(LEN(評価指針!$E20)&gt;40,LEFT(評価指針!$E20,40)&amp;"・・・",評価指針!$E20)</f>
-        <v>以下の点を考慮に入れて寿命又は耐久性を計る評価方法を明確に定め、評価を行う。
-①・・・</v>
-      </c>
-      <c r="O20" s="25">
-        <v>16</v>
-      </c>
-      <c r="P20" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O20,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O20,配点表,2,FALSE))</f>
-        <v>向上率10%</v>
-      </c>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="31">
-        <f>IF(AND(ASC($V20)="%",$R20&gt;= 90),配点区分!$F$3,IF(ISBLANK($R20)=TRUE,0,IF($X20&gt;=VLOOKUP($P20,配点表1,5,FALSE),配点区分!$F$3,IF($X20&gt;=VLOOKUP($P20,配点表1,6,FALSE),配点区分!$G$3,IF($X20&gt;=VLOOKUP($P20,配点表1,7,FALSE),配点区分!$H$3,IF($X20&gt;=VLOOKUP($P20,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="29"/>
-      <c r="V20" s="25">
-        <v>10</v>
-      </c>
-      <c r="W20" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V20,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V20,単位分類名ID,0),3))</f>
-        <v>時間</v>
-      </c>
-      <c r="X20" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>2.2.1</v>
-      </c>
-      <c r="Z20" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA20" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" ht="40.5">
-      <c r="C21" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21" s="25">
-        <v>2</v>
-      </c>
-      <c r="E21" s="25">
-        <v>3</v>
-      </c>
-      <c r="F21" s="25">
-        <v>1</v>
-      </c>
-      <c r="G21" s="25">
-        <v>1</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="N21" s="28" t="str">
-        <f>IF(LEN(評価指針!$E21)&gt;40,LEFT(評価指針!$E21,40)&amp;"・・・",評価指針!$E21)</f>
-        <v>・上記例を参考に、削減対象廃棄物とその削減目標値は事業者で決める。
-・評価範囲は・・・</v>
-      </c>
-      <c r="O21" s="25">
-        <v>22</v>
-      </c>
-      <c r="P21" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O21,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O21,配点表,2,FALSE))</f>
-        <v>削減率 5%</v>
-      </c>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="31">
-        <f>IF(AND(ASC($V21)="%",$R21&gt;= 90),配点区分!$F$3,IF(ISBLANK($R21)=TRUE,0,IF($X21&gt;=VLOOKUP($P21,配点表1,5,FALSE),配点区分!$F$3,IF($X21&gt;=VLOOKUP($P21,配点表1,6,FALSE),配点区分!$G$3,IF($X21&gt;=VLOOKUP($P21,配点表1,7,FALSE),配点区分!$H$3,IF($X21&gt;=VLOOKUP($P21,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="29"/>
-      <c r="V21" s="25">
-        <v>13</v>
-      </c>
-      <c r="W21" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V21,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V21,単位分類名ID,0),3))</f>
-        <v>重量</v>
-      </c>
-      <c r="X21" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>2.3.1</v>
-      </c>
-      <c r="Z21" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA21" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" ht="40.5">
-      <c r="C22" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="25">
-        <v>2</v>
-      </c>
-      <c r="E22" s="25">
-        <v>3</v>
-      </c>
-      <c r="F22" s="25">
-        <v>2</v>
-      </c>
-      <c r="G22" s="25">
-        <v>1</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="N22" s="28" t="str">
-        <f>IF(LEN(評価指針!$E22)&gt;40,LEFT(評価指針!$E22,40)&amp;"・・・",評価指針!$E22)</f>
-        <v>・消費量は消耗品の耐用寿命、交換周期で置き換えて目標値設定してもよい。
-・製品評・・・</v>
-      </c>
-      <c r="O22" s="25">
-        <v>9</v>
-      </c>
-      <c r="P22" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O22,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O22,配点表,2,FALSE))</f>
-        <v>削減率10%</v>
-      </c>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="31">
-        <f>IF(AND(ASC($V22)="%",$R22&gt;= 90),配点区分!$F$3,IF(ISBLANK($R22)=TRUE,0,IF($X22&gt;=VLOOKUP($P22,配点表1,5,FALSE),配点区分!$F$3,IF($X22&gt;=VLOOKUP($P22,配点表1,6,FALSE),配点区分!$G$3,IF($X22&gt;=VLOOKUP($P22,配点表1,7,FALSE),配点区分!$H$3,IF($X22&gt;=VLOOKUP($P22,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="29"/>
-      <c r="V22" s="25">
-        <v>13</v>
-      </c>
-      <c r="W22" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V22,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V22,単位分類名ID,0),3))</f>
-        <v>重量</v>
-      </c>
-      <c r="X22" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>2.3.2</v>
-      </c>
-      <c r="Z22" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA22" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" ht="40.5">
-      <c r="C23" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="25">
-        <v>3</v>
-      </c>
-      <c r="E23" s="25">
-        <v>1</v>
-      </c>
-      <c r="F23" s="25">
-        <v>1</v>
-      </c>
-      <c r="G23" s="25">
-        <v>1</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" s="26" t="s">
+      <c r="I24" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J24" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K23" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="N23" s="28" t="str">
-        <f>IF(LEN(評価指針!$E23)&gt;40,LEFT(評価指針!$E23,40)&amp;"・・・",評価指針!$E23)</f>
-        <v>【交換可能部品とは】
-ユーザー、メンテナンス担当者が、全体を交換せずにその部品の・・・</v>
-      </c>
-      <c r="O23" s="25">
-        <v>16</v>
-      </c>
-      <c r="P23" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O23,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O23,配点表,2,FALSE))</f>
-        <v>向上率10%</v>
-      </c>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="31">
-        <f>IF(AND(ASC($V23)="%",$R23&gt;= 90),配点区分!$F$3,IF(ISBLANK($R23)=TRUE,0,IF($X23&gt;=VLOOKUP($P23,配点表1,5,FALSE),配点区分!$F$3,IF($X23&gt;=VLOOKUP($P23,配点表1,6,FALSE),配点区分!$G$3,IF($X23&gt;=VLOOKUP($P23,配点表1,7,FALSE),配点区分!$H$3,IF($X23&gt;=VLOOKUP($P23,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="29"/>
-      <c r="V23" s="25">
-        <v>8</v>
-      </c>
-      <c r="W23" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V23,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V23,単位分類名ID,0),3))</f>
-        <v>数量</v>
-      </c>
-      <c r="X23" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>3.1.1</v>
-      </c>
-      <c r="Z23" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA23" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" ht="40.5">
-      <c r="C24" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="25">
-        <v>3</v>
-      </c>
-      <c r="E24" s="25">
-        <v>1</v>
-      </c>
-      <c r="F24" s="25">
-        <v>2</v>
-      </c>
-      <c r="G24" s="25">
-        <v>1</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="N24" s="28" t="str">
+      <c r="N24" s="25" t="str">
         <f>IF(LEN(評価指針!$E24)&gt;40,LEFT(評価指針!$E24,40)&amp;"・・・",評価指針!$E24)</f>
         <v>・製品設計、生産段階での部品標準化の一部としてとらえられるが、保守交換部品に絞っ・・・</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="22">
         <v>16</v>
       </c>
-      <c r="P24" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O24,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O24,配点表,2,FALSE))</f>
+      <c r="P24" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>向上率10%</v>
       </c>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="31">
+      <c r="Q24" s="26"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="28">
         <f>IF(AND(ASC($V24)="%",$R24&gt;= 90),配点区分!$F$3,IF(ISBLANK($R24)=TRUE,0,IF($X24&gt;=VLOOKUP($P24,配点表1,5,FALSE),配点区分!$F$3,IF($X24&gt;=VLOOKUP($P24,配点表1,6,FALSE),配点区分!$G$3,IF($X24&gt;=VLOOKUP($P24,配点表1,7,FALSE),配点区分!$H$3,IF($X24&gt;=VLOOKUP($P24,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U24" s="29"/>
-      <c r="V24" s="25">
+      <c r="U24" s="26"/>
+      <c r="V24" s="22">
         <v>9</v>
       </c>
       <c r="W24" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V24,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V24,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>割合</v>
       </c>
-      <c r="X24" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X24" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>3.1.2</v>
       </c>
-      <c r="Z24" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA24" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" ht="54">
-      <c r="C25" s="25" t="s">
+      <c r="Z24" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA24" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" ht="53">
+      <c r="C25" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="22">
         <v>3</v>
       </c>
-      <c r="E25" s="25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="25">
+      <c r="E25" s="22">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22">
         <v>2</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="22">
         <v>2</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="N25" s="28" t="str">
+      <c r="N25" s="25" t="str">
         <f>IF(LEN(評価指針!$E25)&gt;40,LEFT(評価指針!$E25,40)&amp;"・・・",評価指針!$E25)</f>
         <v>・部品、モジュールなどの交換が容易に出来るよう、工具レス、少ない工具、特殊工具使・・・</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="22">
         <v>9</v>
       </c>
-      <c r="P25" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O25,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O25,配点表,2,FALSE))</f>
+      <c r="P25" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>削減率10%</v>
       </c>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="31">
+      <c r="Q25" s="26"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="28">
         <f>IF(AND(ASC($V25)="%",$R25&gt;= 90),配点区分!$F$3,IF(ISBLANK($R25)=TRUE,0,IF($X25&gt;=VLOOKUP($P25,配点表1,5,FALSE),配点区分!$F$3,IF($X25&gt;=VLOOKUP($P25,配点表1,6,FALSE),配点区分!$G$3,IF($X25&gt;=VLOOKUP($P25,配点表1,7,FALSE),配点区分!$H$3,IF($X25&gt;=VLOOKUP($P25,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U25" s="29"/>
-      <c r="V25" s="25">
+      <c r="U25" s="26"/>
+      <c r="V25" s="22">
         <v>10</v>
       </c>
       <c r="W25" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V25,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V25,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>時間</v>
       </c>
-      <c r="X25" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X25" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>3.1.2</v>
       </c>
-      <c r="Z25" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA25" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:27" ht="67.5">
-      <c r="C26" s="25" t="s">
+      <c r="Z25" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA25" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" ht="65">
+      <c r="C26" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="22">
         <v>4</v>
       </c>
-      <c r="E26" s="25">
-        <v>1</v>
-      </c>
-      <c r="F26" s="25">
-        <v>1</v>
-      </c>
-      <c r="G26" s="25">
-        <v>1</v>
-      </c>
-      <c r="H26" s="33" t="s">
+      <c r="E26" s="22">
+        <v>1</v>
+      </c>
+      <c r="F26" s="22">
+        <v>1</v>
+      </c>
+      <c r="G26" s="22">
+        <v>1</v>
+      </c>
+      <c r="H26" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="N26" s="28" t="str">
+      <c r="N26" s="25" t="str">
         <f>IF(LEN(評価指針!$E26)&gt;40,LEFT(評価指針!$E26,40)&amp;"・・・",評価指針!$E26)</f>
         <v>・管理対象とするリサイクル可能な材料及び／又はリサイクルされた材料は、事業者にて・・・</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="22">
         <v>16</v>
       </c>
-      <c r="P26" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O26,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O26,配点表,2,FALSE))</f>
+      <c r="P26" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>向上率10%</v>
       </c>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="31">
+      <c r="Q26" s="26"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="28">
         <f>IF(AND(ASC($V26)="%",$R26&gt;= 90),配点区分!$F$3,IF(ISBLANK($R26)=TRUE,0,IF($X26&gt;=VLOOKUP($P26,配点表1,5,FALSE),配点区分!$F$3,IF($X26&gt;=VLOOKUP($P26,配点表1,6,FALSE),配点区分!$G$3,IF($X26&gt;=VLOOKUP($P26,配点表1,7,FALSE),配点区分!$H$3,IF($X26&gt;=VLOOKUP($P26,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U26" s="29"/>
-      <c r="V26" s="25">
+      <c r="U26" s="26"/>
+      <c r="V26" s="22">
         <v>9</v>
       </c>
       <c r="W26" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V26,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V26,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>割合</v>
       </c>
-      <c r="X26" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X26" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>4.1.1</v>
       </c>
-      <c r="Z26" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA26" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" ht="67.5">
-      <c r="C27" s="25" t="s">
+      <c r="Z26" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA26" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" ht="65">
+      <c r="C27" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="22">
         <v>4</v>
       </c>
-      <c r="E27" s="25">
-        <v>1</v>
-      </c>
-      <c r="F27" s="25">
-        <v>1</v>
-      </c>
-      <c r="G27" s="25">
+      <c r="E27" s="22">
+        <v>1</v>
+      </c>
+      <c r="F27" s="22">
+        <v>1</v>
+      </c>
+      <c r="G27" s="22">
         <v>2</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="36" t="s">
+      <c r="J27" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="N27" s="28" t="str">
+      <c r="N27" s="25" t="str">
         <f>IF(LEN(評価指針!$E27)&gt;40,LEFT(評価指針!$E27,40)&amp;"・・・",評価指針!$E27)</f>
         <v>・管理対象とするリサイクル可能な材料及び／又はリサイクルされた材料は、事業者にて・・・</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="22">
         <v>16</v>
       </c>
-      <c r="P27" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O27,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O27,配点表,2,FALSE))</f>
+      <c r="P27" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>向上率10%</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="31">
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="28">
         <f>IF(AND(ASC($V27)="%",$R27&gt;= 90),配点区分!$F$3,IF(ISBLANK($R27)=TRUE,0,IF($X27&gt;=VLOOKUP($P27,配点表1,5,FALSE),配点区分!$F$3,IF($X27&gt;=VLOOKUP($P27,配点表1,6,FALSE),配点区分!$G$3,IF($X27&gt;=VLOOKUP($P27,配点表1,7,FALSE),配点区分!$H$3,IF($X27&gt;=VLOOKUP($P27,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U27" s="29"/>
-      <c r="V27" s="25">
+      <c r="U27" s="26"/>
+      <c r="V27" s="22">
         <v>9</v>
       </c>
       <c r="W27" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V27,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V27,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>割合</v>
       </c>
-      <c r="X27" s="32">
+      <c r="X27" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>4.1.1</v>
+      </c>
+      <c r="Z27" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA27" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" ht="257">
+      <c r="C28" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="22">
+        <v>4</v>
+      </c>
+      <c r="E28" s="22">
+        <v>2</v>
+      </c>
+      <c r="F28" s="22">
+        <v>2</v>
+      </c>
+      <c r="G28" s="22">
+        <v>1</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="N28" s="25" t="str">
+        <f>IF(LEN(評価指針!$E28)&gt;40,LEFT(評価指針!$E28,40)&amp;"・・・",評価指針!$E28)</f>
+        <v>・取扱説明書、HP、図面、注意書き等への表示の有無と見やすさを評価する。_x000D__x000D_・重・・・</v>
+      </c>
+      <c r="O28" s="22">
+        <v>26</v>
+      </c>
+      <c r="P28" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="25" t="str">
+        <v>リサイクルの管理レベル</v>
+      </c>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="28">
+        <f>IF(ISBLANK($R28)=TRUE,0,IF($X28=VLOOKUP($P28,配点表1,5,FALSE),配点区分!$F$3,IF($X28=VLOOKUP($P28,配点表1,6,FALSE),配点区分!$G$3,IF($X28=VLOOKUP($P28,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="26"/>
+      <c r="V28" s="22">
+        <v>1</v>
+      </c>
+      <c r="W28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.1</v>
-      </c>
-      <c r="Z27" s="25">
+        <v>定性値</v>
+      </c>
+      <c r="X28" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA27" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" ht="229.5">
-      <c r="C28" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="25">
+        <v>4.2.2</v>
+      </c>
+      <c r="Z28" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA28" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" ht="29">
+      <c r="C29" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="22">
         <v>4</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E29" s="22">
         <v>2</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F29" s="22">
         <v>2</v>
       </c>
-      <c r="G28" s="25">
-        <v>1</v>
-      </c>
-      <c r="H28" s="33" t="s">
+      <c r="G29" s="22">
+        <v>2</v>
+      </c>
+      <c r="H29" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I29" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J29" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K29" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="L28" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="N28" s="28" t="str">
-        <f>IF(LEN(評価指針!$E28)&gt;40,LEFT(評価指針!$E28,40)&amp;"・・・",評価指針!$E28)</f>
-        <v>・取扱説明書、HP、図面、注意書き等への表示の有無と見やすさを評価する。_x000D_
-・重・・・</v>
-      </c>
-      <c r="O28" s="25">
-        <v>26</v>
-      </c>
-      <c r="P28" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O28,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O28,配点表,2,FALSE))</f>
-        <v>リサイクルの管理レベル</v>
-      </c>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="31">
-        <f>IF(ISBLANK($R28)=TRUE,0,IF($X28=VLOOKUP($P28,配点表1,5,FALSE),配点区分!$F$3,IF($X28=VLOOKUP($P28,配点表1,6,FALSE),配点区分!$G$3,IF($X28=VLOOKUP($P28,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="29"/>
-      <c r="V28" s="25">
-        <v>1</v>
-      </c>
-      <c r="W28" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V28,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V28,単位分類名ID,0),3))</f>
-        <v>定性値</v>
-      </c>
-      <c r="X28" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>4.2.2</v>
-      </c>
-      <c r="Z28" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA28" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:27" ht="27">
-      <c r="C29" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D29" s="25">
-        <v>4</v>
-      </c>
-      <c r="E29" s="25">
-        <v>2</v>
-      </c>
-      <c r="F29" s="25">
-        <v>2</v>
-      </c>
-      <c r="G29" s="25">
-        <v>2</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="N29" s="28" t="str">
+      <c r="N29" s="25" t="str">
         <f>IF(LEN(評価指針!$E29)&gt;40,LEFT(評価指針!$E29,40)&amp;"・・・",評価指針!$E29)</f>
         <v>分解に要する時間を測定し、評価する。</v>
       </c>
-      <c r="O29" s="25">
+      <c r="O29" s="22">
         <v>9</v>
       </c>
-      <c r="P29" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O29,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O29,配点表,2,FALSE))</f>
+      <c r="P29" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>削減率10%</v>
       </c>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="31">
+      <c r="Q29" s="26"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="28">
         <f>IF(AND(ASC($V29)="%",$R29&gt;= 90),配点区分!$F$3,IF(ISBLANK($R29)=TRUE,0,IF($X29&gt;=VLOOKUP($P29,配点表1,5,FALSE),配点区分!$F$3,IF($X29&gt;=VLOOKUP($P29,配点表1,6,FALSE),配点区分!$G$3,IF($X29&gt;=VLOOKUP($P29,配点表1,7,FALSE),配点区分!$H$3,IF($X29&gt;=VLOOKUP($P29,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
         <v>0</v>
       </c>
-      <c r="U29" s="29"/>
-      <c r="V29" s="25">
+      <c r="U29" s="26"/>
+      <c r="V29" s="22">
         <v>10</v>
       </c>
       <c r="W29" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V29,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V29,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>時間</v>
       </c>
-      <c r="X29" s="32" t="b">
+      <c r="X29" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>4.2.2</v>
+      </c>
+      <c r="Z29" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" ht="29">
+      <c r="C30" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" s="22">
+        <v>4</v>
+      </c>
+      <c r="E30" s="22">
+        <v>2</v>
+      </c>
+      <c r="F30" s="22">
+        <v>2</v>
+      </c>
+      <c r="G30" s="22">
+        <v>3</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="N30" s="25" t="str">
+        <f>IF(LEN(評価指針!$E30)&gt;40,LEFT(評価指針!$E30,40)&amp;"・・・",評価指針!$E30)</f>
+        <v>【リサイクル可能な材料の種類数低減の例】_x000D_従来品はSUS304と316を使用⇒最・・・</v>
+      </c>
+      <c r="O30" s="22">
+        <v>9</v>
+      </c>
+      <c r="P30" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="25" t="str">
+        <v>削減率10%</v>
+      </c>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="28">
+        <f>IF(AND(ASC($V30)="%",$R30&gt;= 90),配点区分!$F$3,IF(ISBLANK($R30)=TRUE,0,IF($X30&gt;=VLOOKUP($P30,配点表1,5,FALSE),配点区分!$F$3,IF($X30&gt;=VLOOKUP($P30,配点表1,6,FALSE),配点区分!$G$3,IF($X30&gt;=VLOOKUP($P30,配点表1,7,FALSE),配点区分!$H$3,IF($X30&gt;=VLOOKUP($P30,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="26"/>
+      <c r="V30" s="22">
+        <v>8</v>
+      </c>
+      <c r="W30" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>数量</v>
+      </c>
+      <c r="X30" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>4.2.2</v>
       </c>
-      <c r="Z29" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA29" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" ht="27">
-      <c r="C30" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="D30" s="25">
-        <v>4</v>
-      </c>
-      <c r="E30" s="25">
-        <v>2</v>
-      </c>
-      <c r="F30" s="25">
-        <v>2</v>
-      </c>
-      <c r="G30" s="25">
-        <v>3</v>
-      </c>
-      <c r="H30" s="33" t="s">
+      <c r="Z30" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA30" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" ht="29">
+      <c r="C31" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="22">
+        <v>6</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22">
+        <v>1</v>
+      </c>
+      <c r="H31" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I30" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="N30" s="28" t="str">
-        <f>IF(LEN(評価指針!$E30)&gt;40,LEFT(評価指針!$E30,40)&amp;"・・・",評価指針!$E30)</f>
-        <v>【リサイクル可能な材料の種類数低減の例】
-従来品はSUS304と316を使用⇒最・・・</v>
-      </c>
-      <c r="O30" s="25">
-        <v>9</v>
-      </c>
-      <c r="P30" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O30,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O30,配点表,2,FALSE))</f>
-        <v>削減率10%</v>
-      </c>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="31">
-        <f>IF(AND(ASC($V30)="%",$R30&gt;= 90),配点区分!$F$3,IF(ISBLANK($R30)=TRUE,0,IF($X30&gt;=VLOOKUP($P30,配点表1,5,FALSE),配点区分!$F$3,IF($X30&gt;=VLOOKUP($P30,配点表1,6,FALSE),配点区分!$G$3,IF($X30&gt;=VLOOKUP($P30,配点表1,7,FALSE),配点区分!$H$3,IF($X30&gt;=VLOOKUP($P30,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="29"/>
-      <c r="V30" s="25">
-        <v>8</v>
-      </c>
-      <c r="W30" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V30,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V30,単位分類名ID,0),3))</f>
-        <v>数量</v>
-      </c>
-      <c r="X30" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>4.2.2</v>
-      </c>
-      <c r="Z30" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA30" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:27" ht="27">
-      <c r="C31" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="25">
-        <v>6</v>
-      </c>
-      <c r="E31" s="25">
-        <v>1</v>
-      </c>
-      <c r="F31" s="25">
-        <v>1</v>
-      </c>
-      <c r="G31" s="25">
-        <v>1</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="N31" s="28" t="str">
+      <c r="N31" s="25" t="str">
         <f>IF(LEN(評価指針!$E31)&gt;40,LEFT(評価指針!$E31,40)&amp;"・・・",評価指針!$E31)</f>
         <v>関連国内法だけではなく、近年はCEマーキングを要求されることが多く、次のような関・・・</v>
       </c>
-      <c r="O31" s="25">
+      <c r="O31" s="22">
         <v>3</v>
       </c>
-      <c r="P31" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O31,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O31,配点表,2,FALSE))</f>
+      <c r="P31" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>管理レベル</v>
       </c>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="31">
+      <c r="Q31" s="26"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="28">
         <f>IF(ISBLANK($R31)=TRUE,0,IF($X31=VLOOKUP($P31,配点表1,5,FALSE),配点区分!$F$3,IF($X31=VLOOKUP($P31,配点表1,6,FALSE),配点区分!$G$3,IF($X31=VLOOKUP($P31,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
         <v>0</v>
       </c>
-      <c r="U31" s="29"/>
-      <c r="V31" s="25">
+      <c r="U31" s="26"/>
+      <c r="V31" s="22">
         <v>1</v>
       </c>
       <c r="W31" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V31,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V31,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>定性値</v>
       </c>
-      <c r="X31" s="32">
+      <c r="X31" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>6.1.1</v>
+      </c>
+      <c r="Z31" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA31" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" ht="41">
+      <c r="C32" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="22">
+        <v>6</v>
+      </c>
+      <c r="E32" s="22">
+        <v>2</v>
+      </c>
+      <c r="F32" s="22">
+        <v>1</v>
+      </c>
+      <c r="G32" s="22">
+        <v>1</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="N32" s="25" t="str">
+        <f>IF(LEN(評価指針!$E32)&gt;40,LEFT(評価指針!$E32,40)&amp;"・・・",評価指針!$E32)</f>
+        <v>【個々の製品製造時におけるCO2排出量削減方法の例】_x000D_①CO2排出量の少ない材料・・・</v>
+      </c>
+      <c r="O32" s="22">
+        <v>22</v>
+      </c>
+      <c r="P32" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="25" t="str">
+        <v>削減率 5%</v>
+      </c>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="28">
+        <f>IF(AND(ASC($V32)="%",$R32&gt;= 90),配点区分!$F$3,IF(ISBLANK($R32)=TRUE,0,IF($X32&gt;=VLOOKUP($P32,配点表1,5,FALSE),配点区分!$F$3,IF($X32&gt;=VLOOKUP($P32,配点表1,6,FALSE),配点区分!$G$3,IF($X32&gt;=VLOOKUP($P32,配点表1,7,FALSE),配点区分!$H$3,IF($X32&gt;=VLOOKUP($P32,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="26"/>
+      <c r="V32" s="22">
+        <v>13</v>
+      </c>
+      <c r="W32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>6.1.1</v>
-      </c>
-      <c r="Z31" s="25">
+        <v>重量</v>
+      </c>
+      <c r="X32" s="29" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA31" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:27" ht="40.5">
-      <c r="C32" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="25">
+        <v>6.2.1</v>
+      </c>
+      <c r="Z32" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA32" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:27" ht="53">
+      <c r="C33" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="22">
         <v>6</v>
       </c>
-      <c r="E32" s="25">
-        <v>2</v>
-      </c>
-      <c r="F32" s="25">
-        <v>1</v>
-      </c>
-      <c r="G32" s="25">
-        <v>1</v>
-      </c>
-      <c r="H32" s="33" t="s">
+      <c r="E33" s="22">
+        <v>3</v>
+      </c>
+      <c r="F33" s="22">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22">
+        <v>1</v>
+      </c>
+      <c r="H33" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I33" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="N32" s="28" t="str">
-        <f>IF(LEN(評価指針!$E32)&gt;40,LEFT(評価指針!$E32,40)&amp;"・・・",評価指針!$E32)</f>
-        <v>【個々の製品製造時におけるCO2排出量削減方法の例】
-①CO2排出量の少ない材料・・・</v>
-      </c>
-      <c r="O32" s="25">
-        <v>22</v>
-      </c>
-      <c r="P32" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O32,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O32,配点表,2,FALSE))</f>
-        <v>削減率 5%</v>
-      </c>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="31">
-        <f>IF(AND(ASC($V32)="%",$R32&gt;= 90),配点区分!$F$3,IF(ISBLANK($R32)=TRUE,0,IF($X32&gt;=VLOOKUP($P32,配点表1,5,FALSE),配点区分!$F$3,IF($X32&gt;=VLOOKUP($P32,配点表1,6,FALSE),配点区分!$G$3,IF($X32&gt;=VLOOKUP($P32,配点表1,7,FALSE),配点区分!$H$3,IF($X32&gt;=VLOOKUP($P32,配点表1,8,FALSE),配点区分!$I$3,配点区分!$J$3))))))</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="29"/>
-      <c r="V32" s="25">
-        <v>13</v>
-      </c>
-      <c r="W32" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V32,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V32,単位分類名ID,0),3))</f>
-        <v>重量</v>
-      </c>
-      <c r="X32" s="32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>6.2.1</v>
-      </c>
-      <c r="Z32" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA32" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:27" ht="54">
-      <c r="C33" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="25">
-        <v>6</v>
-      </c>
-      <c r="E33" s="25">
-        <v>3</v>
-      </c>
-      <c r="F33" s="25">
-        <v>1</v>
-      </c>
-      <c r="G33" s="25">
-        <v>1</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="M33" s="20" t="s">
+      <c r="M33" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="N33" s="28" t="str">
+      <c r="N33" s="25" t="str">
         <f>IF(LEN(評価指針!$E33)&gt;40,LEFT(評価指針!$E33,40)&amp;"・・・",評価指針!$E33)</f>
         <v>評価指針!D33</v>
       </c>
-      <c r="O33" s="25">
+      <c r="O33" s="22">
         <v>3</v>
       </c>
-      <c r="P33" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O33,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O33,配点表,2,FALSE))</f>
+      <c r="P33" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>管理レベル</v>
       </c>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="31">
+      <c r="Q33" s="26"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="28">
         <f>IF(ISBLANK($R33)=TRUE,0,IF($X33=VLOOKUP($P33,配点表1,5,FALSE),配点区分!$F$3,IF($X33=VLOOKUP($P33,配点表1,6,FALSE),配点区分!$G$3,IF($X33=VLOOKUP($P33,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
         <v>0</v>
       </c>
-      <c r="U33" s="29"/>
-      <c r="V33" s="25">
+      <c r="U33" s="26"/>
+      <c r="V33" s="22">
         <v>1</v>
       </c>
       <c r="W33" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V33,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V33,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>定性値</v>
       </c>
-      <c r="X33" s="32">
+      <c r="X33" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>6.3.1</v>
+      </c>
+      <c r="Z33" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA33" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27" ht="53">
+      <c r="C34" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="22">
+        <v>6</v>
+      </c>
+      <c r="E34" s="22">
+        <v>3</v>
+      </c>
+      <c r="F34" s="22">
+        <v>1</v>
+      </c>
+      <c r="G34" s="22">
+        <v>2</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="N34" s="25" t="str">
+        <f>IF(LEN(評価指針!$E34)&gt;40,LEFT(評価指針!$E34,40)&amp;"・・・",評価指針!$E34)</f>
+        <v>【有害物質関連規制の例】_x000D_欧州関連指令（REACH、RoHSなど）、化審法、化管・・・</v>
+      </c>
+      <c r="O34" s="22">
+        <v>3</v>
+      </c>
+      <c r="P34" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="25" t="str">
+        <v>管理レベル</v>
+      </c>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="28">
+        <f>IF(ISBLANK($R34)=TRUE,0,IF($X34=VLOOKUP($P34,配点表1,5,FALSE),配点区分!$F$3,IF($X34=VLOOKUP($P34,配点表1,6,FALSE),配点区分!$G$3,IF($X34=VLOOKUP($P34,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="26"/>
+      <c r="V34" s="22">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>定性値</v>
+      </c>
+      <c r="X34" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>6.3.1</v>
       </c>
-      <c r="Z33" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA33" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:27" ht="54">
-      <c r="C34" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="25">
-        <v>6</v>
-      </c>
-      <c r="E34" s="25">
-        <v>3</v>
-      </c>
-      <c r="F34" s="25">
-        <v>1</v>
-      </c>
-      <c r="G34" s="25">
-        <v>2</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="I34" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="K34" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="N34" s="28" t="str">
-        <f>IF(LEN(評価指針!$E34)&gt;40,LEFT(評価指針!$E34,40)&amp;"・・・",評価指針!$E34)</f>
-        <v>【有害物質関連規制の例】
-欧州関連指令（REACH、RoHSなど）、化審法、化管・・・</v>
-      </c>
-      <c r="O34" s="25">
-        <v>3</v>
-      </c>
-      <c r="P34" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O34,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O34,配点表,2,FALSE))</f>
-        <v>管理レベル</v>
-      </c>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="31">
-        <f>IF(ISBLANK($R34)=TRUE,0,IF($X34=VLOOKUP($P34,配点表1,5,FALSE),配点区分!$F$3,IF($X34=VLOOKUP($P34,配点表1,6,FALSE),配点区分!$G$3,IF($X34=VLOOKUP($P34,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="29"/>
-      <c r="V34" s="25">
-        <v>1</v>
-      </c>
-      <c r="W34" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V34,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V34,単位分類名ID,0),3))</f>
-        <v>定性値</v>
-      </c>
-      <c r="X34" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>6.3.1</v>
-      </c>
-      <c r="Z34" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA34" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:27" ht="40.5">
-      <c r="C35" s="25" t="s">
+      <c r="Z34" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA34" s="28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:27" ht="41">
+      <c r="C35" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="22">
         <v>7</v>
       </c>
-      <c r="E35" s="25">
-        <v>1</v>
-      </c>
-      <c r="F35" s="25">
-        <v>1</v>
-      </c>
-      <c r="G35" s="25">
-        <v>1</v>
-      </c>
-      <c r="H35" s="33" t="s">
+      <c r="E35" s="22">
+        <v>1</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1</v>
+      </c>
+      <c r="G35" s="22">
+        <v>1</v>
+      </c>
+      <c r="H35" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J35" s="27" t="s">
+      <c r="J35" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K35" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="N35" s="28" t="str">
+      <c r="N35" s="25" t="str">
         <f>IF(LEN(評価指針!$E35)&gt;40,LEFT(評価指針!$E35,40)&amp;"・・・",評価指針!$E35)</f>
         <v>7.1.1.1の「知っておくべき製品情報」とは、製品の仕様、特性、性能、機能など・・・</v>
       </c>
-      <c r="O35" s="25">
+      <c r="O35" s="22">
         <v>3</v>
       </c>
-      <c r="P35" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O35,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O35,配点表,2,FALSE))</f>
+      <c r="P35" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>管理レベル</v>
       </c>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="31">
+      <c r="Q35" s="26"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="28">
         <f>IF(ISBLANK($R35)=TRUE,0,IF($X35=VLOOKUP($P35,配点表1,5,FALSE),配点区分!$F$3,IF($X35=VLOOKUP($P35,配点表1,6,FALSE),配点区分!$G$3,IF($X35=VLOOKUP($P35,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
         <v>0</v>
       </c>
-      <c r="U35" s="29"/>
-      <c r="V35" s="25">
+      <c r="U35" s="26"/>
+      <c r="V35" s="22">
         <v>1</v>
       </c>
       <c r="W35" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V35,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V35,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>定性値</v>
       </c>
-      <c r="X35" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X35" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>7.1.1</v>
       </c>
-      <c r="Z35" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA35" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:27" ht="54">
-      <c r="C36" s="25" t="s">
+      <c r="Z35" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA35" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27" ht="53">
+      <c r="C36" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="22">
         <v>7</v>
       </c>
-      <c r="E36" s="25">
-        <v>1</v>
-      </c>
-      <c r="F36" s="25">
-        <v>1</v>
-      </c>
-      <c r="G36" s="25">
+      <c r="E36" s="22">
+        <v>1</v>
+      </c>
+      <c r="F36" s="22">
+        <v>1</v>
+      </c>
+      <c r="G36" s="22">
         <v>2</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="K36" s="35" t="s">
+      <c r="K36" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="N36" s="28" t="str">
+      <c r="N36" s="25" t="str">
         <f>IF(LEN(評価指針!$E36)&gt;40,LEFT(評価指針!$E36,40)&amp;"・・・",評価指針!$E36)</f>
         <v>7.1.1.2は、法令により定められた特定の化学物質を使用している指定製品の場合・・・</v>
       </c>
-      <c r="O36" s="25">
+      <c r="O36" s="22">
         <v>3</v>
       </c>
-      <c r="P36" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O36,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O36,配点表,2,FALSE))</f>
+      <c r="P36" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>管理レベル</v>
       </c>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="31">
+      <c r="Q36" s="26"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="28">
         <f>IF(ISBLANK($R36)=TRUE,0,IF($X36=VLOOKUP($P36,配点表1,5,FALSE),配点区分!$F$3,IF($X36=VLOOKUP($P36,配点表1,6,FALSE),配点区分!$G$3,IF($X36=VLOOKUP($P36,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
         <v>0</v>
       </c>
-      <c r="U36" s="29"/>
-      <c r="V36" s="25">
+      <c r="U36" s="26"/>
+      <c r="V36" s="22">
         <v>1</v>
       </c>
       <c r="W36" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V36,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V36,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>定性値</v>
       </c>
-      <c r="X36" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X36" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>7.1.1</v>
       </c>
-      <c r="Z36" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA36" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:27" ht="67.5">
-      <c r="C37" s="25" t="s">
+      <c r="Z36" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA36" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:27" ht="65">
+      <c r="C37" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="22">
         <v>7</v>
       </c>
-      <c r="E37" s="25">
-        <v>1</v>
-      </c>
-      <c r="F37" s="25">
-        <v>1</v>
-      </c>
-      <c r="G37" s="25">
+      <c r="E37" s="22">
+        <v>1</v>
+      </c>
+      <c r="F37" s="22">
+        <v>1</v>
+      </c>
+      <c r="G37" s="22">
         <v>3</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="I37" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J37" s="35" t="s">
+      <c r="J37" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="K37" s="35" t="s">
+      <c r="K37" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="L37" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="N37" s="28" t="str">
+      <c r="N37" s="25" t="str">
         <f>IF(LEN(評価指針!$E37)&gt;40,LEFT(評価指針!$E37,40)&amp;"・・・",評価指針!$E37)</f>
         <v>7.1.1.3では、製品説明書、取り扱い説明書などで適切に情報提供できているか、・・・</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="22">
         <v>3</v>
       </c>
-      <c r="P37" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O37,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O37,配点表,2,FALSE))</f>
+      <c r="P37" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>管理レベル</v>
       </c>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="31">
+      <c r="Q37" s="26"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="28">
         <f>IF(ISBLANK($R37)=TRUE,0,IF($X37=VLOOKUP($P37,配点表1,5,FALSE),配点区分!$F$3,IF($X37=VLOOKUP($P37,配点表1,6,FALSE),配点区分!$G$3,IF($X37=VLOOKUP($P37,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
         <v>0</v>
       </c>
-      <c r="U37" s="29"/>
-      <c r="V37" s="25">
+      <c r="U37" s="26"/>
+      <c r="V37" s="22">
         <v>1</v>
       </c>
       <c r="W37" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V37,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V37,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>定性値</v>
       </c>
-      <c r="X37" s="32">
+      <c r="X37" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>7.1.1</v>
+      </c>
+      <c r="Z37" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27" ht="41">
+      <c r="C38" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="22">
+        <v>7</v>
+      </c>
+      <c r="E38" s="22">
+        <v>1</v>
+      </c>
+      <c r="F38" s="22">
+        <v>1</v>
+      </c>
+      <c r="G38" s="22">
+        <v>4</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="N38" s="25" t="str">
+        <f>IF(LEN(評価指針!$E38)&gt;40,LEFT(評価指針!$E38,40)&amp;"・・・",評価指針!$E38)</f>
+        <v>【評価時の視点】_x000D_・表示内容が理解しやすいか。_x000D_・見やすい位置にあるか。_x000D_・読み・・・</v>
+      </c>
+      <c r="O38" s="22">
+        <v>3</v>
+      </c>
+      <c r="P38" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="25" t="str">
+        <v>管理レベル</v>
+      </c>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="28">
+        <f>IF(ISBLANK($R38)=TRUE,0,IF($X38=VLOOKUP($P38,配点表1,5,FALSE),配点区分!$F$3,IF($X38=VLOOKUP($P38,配点表1,6,FALSE),配点区分!$G$3,IF($X38=VLOOKUP($P38,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="26"/>
+      <c r="V38" s="22">
+        <v>1</v>
+      </c>
+      <c r="W38" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>定性値</v>
+      </c>
+      <c r="X38" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>7.1.1</v>
       </c>
-      <c r="Z37" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA37" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:27" ht="54">
-      <c r="C38" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="D38" s="25">
+      <c r="Z38" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA38" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:27" ht="41">
+      <c r="C39" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" s="22">
         <v>7</v>
       </c>
-      <c r="E38" s="25">
-        <v>1</v>
-      </c>
-      <c r="F38" s="25">
-        <v>1</v>
-      </c>
-      <c r="G38" s="25">
-        <v>4</v>
-      </c>
-      <c r="H38" s="33" t="s">
+      <c r="E39" s="22">
+        <v>1</v>
+      </c>
+      <c r="F39" s="22">
+        <v>1</v>
+      </c>
+      <c r="G39" s="22">
+        <v>5</v>
+      </c>
+      <c r="H39" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I39" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="35" t="s">
+      <c r="J39" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="K38" s="35" t="s">
+      <c r="K39" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="L38" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="N38" s="28" t="str">
-        <f>IF(LEN(評価指針!$E38)&gt;40,LEFT(評価指針!$E38,40)&amp;"・・・",評価指針!$E38)</f>
-        <v>【評価時の視点】
-・表示内容が理解しやすいか。
-・見やすい位置にあるか。
-・読み・・・</v>
-      </c>
-      <c r="O38" s="25">
-        <v>3</v>
-      </c>
-      <c r="P38" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O38,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O38,配点表,2,FALSE))</f>
-        <v>管理レベル</v>
-      </c>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="31">
-        <f>IF(ISBLANK($R38)=TRUE,0,IF($X38=VLOOKUP($P38,配点表1,5,FALSE),配点区分!$F$3,IF($X38=VLOOKUP($P38,配点表1,6,FALSE),配点区分!$G$3,IF($X38=VLOOKUP($P38,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="29"/>
-      <c r="V38" s="25">
-        <v>1</v>
-      </c>
-      <c r="W38" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V38,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V38,単位分類名ID,0),3))</f>
-        <v>定性値</v>
-      </c>
-      <c r="X38" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>7.1.1</v>
-      </c>
-      <c r="Z38" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA38" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:27" ht="40.5">
-      <c r="C39" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="D39" s="25">
-        <v>7</v>
-      </c>
-      <c r="E39" s="25">
-        <v>1</v>
-      </c>
-      <c r="F39" s="25">
-        <v>1</v>
-      </c>
-      <c r="G39" s="25">
-        <v>5</v>
-      </c>
-      <c r="H39" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="J39" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="K39" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="L39" s="20" t="s">
+      <c r="L39" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="M39" s="20" t="s">
+      <c r="M39" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="N39" s="28" t="str">
+      <c r="N39" s="25" t="str">
         <f>IF(LEN(評価指針!$E39)&gt;40,LEFT(評価指針!$E39,40)&amp;"・・・",評価指針!$E39)</f>
         <v>利用者が必要情報（カタログ、仕様書、図面、取扱説明書、含有物質リスト、RoHS証・・・</v>
       </c>
-      <c r="O39" s="25">
+      <c r="O39" s="22">
         <v>3</v>
       </c>
-      <c r="P39" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O39,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O39,配点表,2,FALSE))</f>
+      <c r="P39" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>管理レベル</v>
       </c>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="31">
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="28">
         <f>IF(ISBLANK($R39)=TRUE,0,IF($X39=VLOOKUP($P39,配点表1,5,FALSE),配点区分!$F$3,IF($X39=VLOOKUP($P39,配点表1,6,FALSE),配点区分!$G$3,IF($X39=VLOOKUP($P39,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
         <v>0</v>
       </c>
-      <c r="U39" s="29"/>
-      <c r="V39" s="25">
+      <c r="U39" s="26"/>
+      <c r="V39" s="22">
         <v>1</v>
       </c>
       <c r="W39" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V39,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V39,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>定性値</v>
       </c>
-      <c r="X39" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X39" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>7.1.1</v>
       </c>
-      <c r="Z39" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA39" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:27" ht="94.5">
-      <c r="C40" s="25" t="s">
+      <c r="Z39" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA39" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:27" ht="137">
+      <c r="C40" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="22">
         <v>8</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="22">
         <v>3</v>
       </c>
-      <c r="F40" s="25">
-        <v>0</v>
-      </c>
-      <c r="G40" s="25">
-        <v>1</v>
-      </c>
-      <c r="H40" s="25" t="s">
+      <c r="F40" s="22">
+        <v>0</v>
+      </c>
+      <c r="G40" s="22">
+        <v>1</v>
+      </c>
+      <c r="H40" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="L40" s="20" t="s">
+      <c r="L40" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="M40" s="20" t="s">
+      <c r="M40" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="N40" s="28" t="str">
+      <c r="N40" s="25" t="str">
         <f>IF(LEN(評価指針!$E40)&gt;40,LEFT(評価指針!$E40,40)&amp;"・・・",評価指針!$E40)</f>
         <v>製品開発時点で、関連部署を包括した環境配慮設計実施のためのプロジェクトが構成され・・・</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O40" s="22">
         <v>27</v>
       </c>
-      <c r="P40" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(O40,配点表,2,FALSE)) = TRUE,0, VLOOKUP(O40,配点表,2,FALSE))</f>
+      <c r="P40" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>達成率</v>
       </c>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="31">
+      <c r="Q40" s="26"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="28">
         <f>IF(ISBLANK($R40)=TRUE,0,IF($X40=VLOOKUP($P40,配点表1,5,FALSE),配点区分!$F$3,IF($X40=VLOOKUP($P40,配点表1,6,FALSE),配点区分!$G$3,IF($X40=VLOOKUP($P40,配点表1,7,FALSE),配点区分!$H$3,配点区分!$I$3))))</f>
         <v>0</v>
       </c>
-      <c r="U40" s="29"/>
-      <c r="V40" s="25">
+      <c r="U40" s="26"/>
+      <c r="V40" s="22">
         <v>1</v>
       </c>
       <c r="W40" s="2" t="str">
-        <f>IF(ISERROR(INDEX(単位分類名,MATCH($V40,単位分類名ID,0),3)) = TRUE,0, INDEX(単位分類名,MATCH($V40,単位分類名ID,0),3))</f>
+        <f t="shared" si="1"/>
         <v>定性値</v>
       </c>
-      <c r="X40" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="X40" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>8.3.0</v>
       </c>
-      <c r="Z40" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA40" s="31">
-        <f t="shared" si="3"/>
+      <c r="Z40" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA40" s="28">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -11020,7 +10915,7 @@
     <hyperlink ref="N7:N40" location="評価指針!D6" display="評価指針!D6"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
@@ -11030,38 +10925,43 @@
     <brk id="27" max="16383" man="1"/>
     <brk id="34" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6">
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0">
     <outlinePr showOutlineSymbols="0"/>
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" showZeros="0" showOutlineSymbols="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" showZeros="0" showOutlineSymbols="0" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="78.125" customWidth="1"/>
+    <col min="1" max="1" width="78.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21" customHeight="1"/>
     <row r="2" spans="1:1" ht="24" customHeight="1">
-      <c r="A2" s="39"/>
-    </row>
-    <row r="3" spans="1:1" ht="409.35" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A2" s="36"/>
+    </row>
+    <row r="3" spans="1:1" ht="409.25" customHeight="1">
+      <c r="A3" s="46" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="36.6" customHeight="1">
-      <c r="A4" s="41"/>
+    <row r="4" spans="1:1" ht="36.5" customHeight="1">
+      <c r="A4" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11070,55 +10970,60 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <outlinePr showOutlineSymbols="0"/>
   </sheetPr>
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C14"/>
+    <sheetView showGridLines="0" tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="16"/>
+    <col min="1" max="1" width="3.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="15.6640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="F3" s="45">
+      <c r="F3" s="38">
         <v>3</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="38">
         <v>2</v>
       </c>
-      <c r="H3" s="45">
-        <v>1</v>
-      </c>
-      <c r="I3" s="45">
-        <v>0</v>
-      </c>
-      <c r="J3" s="45">
+      <c r="H3" s="38">
+        <v>1</v>
+      </c>
+      <c r="I3" s="38">
+        <v>0</v>
+      </c>
+      <c r="J3" s="38">
         <v>-1</v>
       </c>
     </row>
@@ -11168,7 +11073,7 @@
         <v>310</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -11282,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="94.5">
+    <row r="10" spans="1:10" ht="89">
       <c r="A10" s="2">
         <v>26</v>
       </c>
@@ -11310,7 +11215,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="121.5">
+    <row r="11" spans="1:10" ht="113">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -11325,25 +11230,25 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="27">
+    <row r="12" spans="1:10" ht="29">
       <c r="A12" s="2">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>317</v>
@@ -11353,16 +11258,16 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -11371,7 +11276,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>317</v>
@@ -11381,19 +11286,19 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11401,7 +11306,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>317</v>
@@ -11411,12 +11316,12 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -11486,30 +11391,36 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet19"/>
+  <sheetPr codeName="Sheet19" enableFormatConditionsCalculation="0"/>
   <dimension ref="C5:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E40"/>
+    <sheetView topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="2.625" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="50.625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="70.625" style="46" customWidth="1"/>
+    <col min="1" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="70.6640625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:5">
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>152</v>
@@ -11519,460 +11430,458 @@
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C6</f>
         <v>1.1.1.1</v>
       </c>
-      <c r="D6" s="47" t="str">
+      <c r="D6" s="40" t="str">
         <f>項目list!$L6</f>
         <v>動作時の消費電力量の削減</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="25" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C7</f>
         <v>1.1.1.3</v>
       </c>
-      <c r="D7" s="47" t="str">
+      <c r="D7" s="40" t="str">
         <f>項目list!$L7</f>
         <v>待機時の消費電力の削減</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="25" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C8</f>
         <v>1.1.2.1</v>
       </c>
-      <c r="D8" s="47" t="str">
+      <c r="D8" s="40" t="str">
         <f>項目list!$L8</f>
         <v>節湯機能の有無</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="81">
-      <c r="C9" s="15" t="str">
+      <c r="E8" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="89">
+      <c r="C9" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C9</f>
         <v>1.1.3.1</v>
       </c>
-      <c r="D9" s="47" t="str">
+      <c r="D9" s="40" t="str">
         <f>項目list!$L9</f>
         <v>生産設備、工程改善、不良率低減による製品製造時のエネルギー消費量の削減</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="81">
-      <c r="C10" s="15" t="str">
+      <c r="E9" s="25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="77">
+      <c r="C10" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C10</f>
         <v>1.1.3.2</v>
       </c>
-      <c r="D10" s="47" t="str">
+      <c r="D10" s="40" t="str">
         <f>項目list!$L10</f>
         <v>製品設計改善による製品製造時のエネルギー消費量の削減</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" ht="54">
-      <c r="C11" s="15" t="str">
+      <c r="E10" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="53">
+      <c r="C11" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C11</f>
         <v>2.1.1.1</v>
       </c>
-      <c r="D11" s="47" t="str">
+      <c r="D11" s="40" t="str">
         <f>項目list!$L11</f>
-        <v>製品の軽量化
-(製品全体の重量削減)</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="54">
-      <c r="C12" s="15" t="str">
+        <v>製品の軽量化_x000D_(製品全体の重量削減)</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="53">
+      <c r="C12" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C12</f>
         <v>2.1.1.2</v>
       </c>
-      <c r="D12" s="47" t="str">
+      <c r="D12" s="40" t="str">
         <f>項目list!$L12</f>
-        <v>製品の小型化
-(製品全体の寸法、容積（体積）)</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="27">
-      <c r="C13" s="15" t="str">
+        <v>製品の小型化_x000D_(製品全体の寸法、容積（体積）)</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="29">
+      <c r="C13" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C13</f>
         <v>2.1.1.3</v>
       </c>
-      <c r="D13" s="47" t="str">
+      <c r="D13" s="40" t="str">
         <f>項目list!$L13</f>
         <v>生産時の歩留まり改善による素材使用量の削減</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" ht="94.5">
-      <c r="C14" s="15" t="str">
+      <c r="E13" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="137">
+      <c r="C14" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C14</f>
         <v>2.1.2.1</v>
       </c>
-      <c r="D14" s="47" t="str">
+      <c r="D14" s="40" t="str">
         <f>項目list!$L14</f>
         <v>部品点数削減</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" ht="81">
-      <c r="C15" s="15" t="str">
+      <c r="E14" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="89">
+      <c r="C15" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C15</f>
         <v>2.1.2.2</v>
       </c>
-      <c r="D15" s="47" t="str">
+      <c r="D15" s="40" t="str">
         <f>項目list!$L15</f>
         <v>標準部品使用の拡大</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" ht="108">
-      <c r="C16" s="15" t="str">
+      <c r="E15" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="101">
+      <c r="C16" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C16</f>
         <v>2.1.3.1</v>
       </c>
-      <c r="D16" s="47" t="str">
+      <c r="D16" s="40" t="str">
         <f>項目list!$L16</f>
         <v>梱包材、包装材の重量及び／又は体積の削減</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="27">
-      <c r="C17" s="15" t="str">
+      <c r="E16" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="29">
+      <c r="C17" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C17</f>
         <v>2.1.5.1</v>
       </c>
-      <c r="D17" s="47" t="str">
+      <c r="D17" s="40" t="str">
         <f>項目list!$L17</f>
         <v>使用時の節水</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="81">
-      <c r="C18" s="15" t="str">
+      <c r="E17" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="77">
+      <c r="C18" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C18</f>
         <v>2.1.5.2</v>
       </c>
-      <c r="D18" s="47" t="str">
+      <c r="D18" s="40" t="str">
         <f>項目list!$L18</f>
         <v>バルブ閉時の弁座漏れ量の低減</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="81">
-      <c r="C19" s="15" t="str">
+      <c r="E18" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="77">
+      <c r="C19" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C19</f>
         <v>2.1.5.3</v>
       </c>
-      <c r="D19" s="47" t="str">
+      <c r="D19" s="40" t="str">
         <f>項目list!$L19</f>
         <v>バルブ使用時の流体の漏れ削減（出口以外）</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="108">
-      <c r="C20" s="15" t="str">
+      <c r="E19" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="101">
+      <c r="C20" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C20</f>
         <v>2.2.1.1</v>
       </c>
-      <c r="D20" s="47" t="str">
+      <c r="D20" s="40" t="str">
         <f>項目list!$L20</f>
         <v>製品、部品・材料（ボトルネックになるもの）の耐用年数（時間）の延長化</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="67.5">
-      <c r="C21" s="15" t="str">
+      <c r="E20" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="65">
+      <c r="C21" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C21</f>
         <v>2.3.1.1</v>
       </c>
-      <c r="D21" s="47" t="str">
+      <c r="D21" s="40" t="str">
         <f>項目list!$L21</f>
         <v>製造過程で発生する廃棄物（リサイクル、リユースの出来ないもの）の削減</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="121.5">
-      <c r="C22" s="15" t="str">
+      <c r="E21" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="101">
+      <c r="C22" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C22</f>
         <v>2.3.2.1</v>
       </c>
-      <c r="D22" s="47" t="str">
+      <c r="D22" s="40" t="str">
         <f>項目list!$L22</f>
         <v>一定条件下で使用した場合の消耗品の消費量削減</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="40.5">
-      <c r="C23" s="15" t="str">
+      <c r="E22" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="41">
+      <c r="C23" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C23</f>
         <v>3.1.1.1</v>
       </c>
-      <c r="D23" s="47" t="str">
+      <c r="D23" s="40" t="str">
         <f>項目list!$L23</f>
         <v>交換可能部品の使用範囲拡大</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="162">
-      <c r="C24" s="15" t="str">
+      <c r="E23" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="137">
+      <c r="C24" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C24</f>
         <v>3.1.2.1</v>
       </c>
-      <c r="D24" s="47" t="str">
+      <c r="D24" s="40" t="str">
         <f>項目list!$L24</f>
         <v>交換部品の標準化</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="54">
-      <c r="C25" s="15" t="str">
+      <c r="E24" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="53">
+      <c r="C25" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C25</f>
         <v>3.1.2.2</v>
       </c>
-      <c r="D25" s="47" t="str">
+      <c r="D25" s="40" t="str">
         <f>項目list!$L25</f>
         <v>部品の交換容易性</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="54">
-      <c r="C26" s="15" t="str">
+      <c r="E25" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="53">
+      <c r="C26" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C26</f>
         <v>4.1.1.1</v>
       </c>
-      <c r="D26" s="47" t="str">
+      <c r="D26" s="40" t="str">
         <f>項目list!$L26</f>
         <v>リサイクル可能な材料を使用した部品の使用範囲拡大</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" ht="54">
-      <c r="C27" s="15" t="str">
+      <c r="E26" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="53">
+      <c r="C27" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C27</f>
         <v>4.1.1.2</v>
       </c>
-      <c r="D27" s="47" t="str">
+      <c r="D27" s="40" t="str">
         <f>項目list!$L27</f>
         <v>リサイクルされた材料を使用した部品、梱包材の使用範囲拡大</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="40.5">
-      <c r="C28" s="15" t="str">
+      <c r="E27" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="65">
+      <c r="C28" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C28</f>
         <v>4.2.2.1</v>
       </c>
-      <c r="D28" s="47" t="str">
+      <c r="D28" s="40" t="str">
         <f>項目list!$L28</f>
         <v>解体時、分別がしやすいように、リサイクル可能な材料を使用した部品の識別表示を行うための管理のレベル</v>
       </c>
-      <c r="E28" s="28" t="s">
-        <v>359</v>
+      <c r="E28" s="25" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C29</f>
         <v>4.2.2.2</v>
       </c>
-      <c r="D29" s="47" t="str">
+      <c r="D29" s="40" t="str">
         <f>項目list!$L29</f>
         <v>解体・分別する対象物は取り外し容易性</v>
       </c>
-      <c r="E29" s="28" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="40.5">
-      <c r="C30" s="15" t="str">
+      <c r="E29" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="41">
+      <c r="C30" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C30</f>
         <v>4.2.2.3</v>
       </c>
-      <c r="D30" s="47" t="str">
+      <c r="D30" s="40" t="str">
         <f>項目list!$L30</f>
         <v>リサイクル可能材種類数の低減</v>
       </c>
-      <c r="E30" s="28" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="108">
-      <c r="C31" s="15" t="str">
+      <c r="E30" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="101">
+      <c r="C31" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C31</f>
         <v>6.1.1.1</v>
       </c>
-      <c r="D31" s="47" t="str">
+      <c r="D31" s="40" t="str">
         <f>項目list!$L31</f>
         <v>該当製品に対する関連法規制とその遵守を確認した書類の有無</v>
       </c>
-      <c r="E31" s="28" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" ht="54">
-      <c r="C32" s="15" t="str">
+      <c r="E31" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="53">
+      <c r="C32" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C32</f>
         <v>6.2.1.1</v>
       </c>
-      <c r="D32" s="47" t="str">
+      <c r="D32" s="40" t="str">
         <f>項目list!$L32</f>
         <v>製品材料の生産過程で発生したCO2排出量の削減</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>363</v>
+      <c r="E32" s="25" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="15" t="str">
+      <c r="C33" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C33</f>
         <v>6.3.1.1</v>
       </c>
-      <c r="D33" s="47" t="str">
+      <c r="D33" s="40" t="str">
         <f>項目list!$L33</f>
         <v>浸出基準への適応性管理のレベル</v>
       </c>
-      <c r="E33" s="28" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="94.5">
-      <c r="C34" s="15" t="str">
+      <c r="E33" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="89">
+      <c r="C34" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C34</f>
         <v>6.3.1.2</v>
       </c>
-      <c r="D34" s="47" t="str">
+      <c r="D34" s="40" t="str">
         <f>項目list!$L34</f>
         <v>該当製品に対する有害化学物質管理のレベル</v>
       </c>
-      <c r="E34" s="28" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="27">
-      <c r="C35" s="15" t="str">
+      <c r="E34" s="25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="29">
+      <c r="C35" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C35</f>
         <v>7.1.1.1</v>
       </c>
-      <c r="D35" s="47" t="str">
+      <c r="D35" s="40" t="str">
         <f>項目list!$L35</f>
         <v>製品のライフサイクル（選定、購入、使用）関係者が、選定・購入前に知っておくべき製品情報の提供</v>
       </c>
-      <c r="E35" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" ht="40.5">
-      <c r="C36" s="15" t="str">
+      <c r="E35" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="41">
+      <c r="C36" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C36</f>
         <v>7.1.1.2</v>
       </c>
-      <c r="D36" s="47" t="str">
+      <c r="D36" s="40" t="str">
         <f>項目list!$L36</f>
         <v>製品のライフサイクル（選定、購入、使用）関係者が知っておくべき必要情報の提供（特定化学物質を使った指定製品の場合）</v>
       </c>
-      <c r="E36" s="28" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="54">
-      <c r="C37" s="15" t="str">
+      <c r="E36" s="25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="53">
+      <c r="C37" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C37</f>
         <v>7.1.1.3</v>
       </c>
-      <c r="D37" s="47" t="str">
+      <c r="D37" s="40" t="str">
         <f>項目list!$L37</f>
         <v>製品のライフサイクル（流通、据付、使用、メンテナンス、廃棄）関係者が、購入後、開梱時、据え付け時、使用時、保守時、廃棄時等に知っておくべき製品の取り扱い、及び、環境安全性についての必要情報の提供</v>
       </c>
-      <c r="E37" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="54">
-      <c r="C38" s="15" t="str">
+      <c r="E37" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="53">
+      <c r="C38" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C38</f>
         <v>7.1.1.4</v>
       </c>
-      <c r="D38" s="47" t="str">
+      <c r="D38" s="40" t="str">
         <f>項目list!$L38</f>
         <v>機器本体に表示すべき情報の表示の見やすさ</v>
       </c>
-      <c r="E38" s="28" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" ht="40.5">
-      <c r="C39" s="15" t="str">
+      <c r="E38" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="41">
+      <c r="C39" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C39</f>
         <v>7.1.1.5</v>
       </c>
-      <c r="D39" s="47" t="str">
+      <c r="D39" s="40" t="str">
         <f>項目list!$L39</f>
         <v>提供情報へのアクセスのしやすさ</v>
       </c>
-      <c r="E39" s="28" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" ht="54">
-      <c r="C40" s="15" t="str">
+      <c r="E39" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="65">
+      <c r="C40" s="12" t="str">
         <f xml:space="preserve"> 項目list!$C40</f>
         <v>8.3.0.1</v>
       </c>
-      <c r="D40" s="47" t="str">
+      <c r="D40" s="40" t="str">
         <f>項目list!$L40</f>
         <v>重点評価項目（事前に3項目以上を設定しておく）における設計目標値の達成率</v>
       </c>
-      <c r="E40" s="28" t="s">
-        <v>371</v>
+      <c r="E40" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -12015,7 +11924,12 @@
     <hyperlink ref="E40" location="評価指針!D40" display="評価指針!D40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>